--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholas/Documents/private code/DS/bookie/udacity_bookie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97279331-37D2-7549-B871-4DF201A6DAD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5798061-58F9-7549-B034-F95B473441E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="135">
   <si>
     <t>Div</t>
   </si>
@@ -340,9 +340,6 @@
     <t>D1</t>
   </si>
   <si>
-    <t>16/08/2019</t>
-  </si>
-  <si>
     <t>19:30</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>17/08/2019</t>
   </si>
   <si>
     <t>14:30</t>
@@ -406,9 +400,6 @@
     <t>Schalke 04</t>
   </si>
   <si>
-    <t>18/08/2019</t>
-  </si>
-  <si>
     <t>Ein Frankfurt</t>
   </si>
   <si>
@@ -424,130 +415,7 @@
     <t>RB Leipzig</t>
   </si>
   <si>
-    <t>23/08/2019</t>
-  </si>
-  <si>
-    <t>24/08/2019</t>
-  </si>
-  <si>
-    <t>25/08/2019</t>
-  </si>
-  <si>
-    <t>30/08/2019</t>
-  </si>
-  <si>
-    <t>31/08/2019</t>
-  </si>
-  <si>
-    <t>01/09/2019</t>
-  </si>
-  <si>
-    <t>13/09/2019</t>
-  </si>
-  <si>
-    <t>14/09/2019</t>
-  </si>
-  <si>
-    <t>15/09/2019</t>
-  </si>
-  <si>
-    <t>20/09/2019</t>
-  </si>
-  <si>
-    <t>21/09/2019</t>
-  </si>
-  <si>
-    <t>22/09/2019</t>
-  </si>
-  <si>
-    <t>23/09/2019</t>
-  </si>
-  <si>
-    <t>27/09/2019</t>
-  </si>
-  <si>
-    <t>28/09/2019</t>
-  </si>
-  <si>
-    <t>29/09/2019</t>
-  </si>
-  <si>
-    <t>04/10/2019</t>
-  </si>
-  <si>
-    <t>05/10/2019</t>
-  </si>
-  <si>
-    <t>06/10/2019</t>
-  </si>
-  <si>
     <t>12:30</t>
-  </si>
-  <si>
-    <t>18/10/2019</t>
-  </si>
-  <si>
-    <t>19/10/2019</t>
-  </si>
-  <si>
-    <t>20/10/2019</t>
-  </si>
-  <si>
-    <t>25/10/2019</t>
-  </si>
-  <si>
-    <t>26/10/2019</t>
-  </si>
-  <si>
-    <t>27/10/2019</t>
-  </si>
-  <si>
-    <t>01/11/2019</t>
-  </si>
-  <si>
-    <t>02/11/2019</t>
-  </si>
-  <si>
-    <t>03/11/2019</t>
-  </si>
-  <si>
-    <t>08/11/2019</t>
-  </si>
-  <si>
-    <t>09/11/2019</t>
-  </si>
-  <si>
-    <t>10/11/2019</t>
-  </si>
-  <si>
-    <t>22/11/2019</t>
-  </si>
-  <si>
-    <t>23/11/2019</t>
-  </si>
-  <si>
-    <t>24/11/2019</t>
-  </si>
-  <si>
-    <t>29/11/2019</t>
-  </si>
-  <si>
-    <t>30/11/2019</t>
-  </si>
-  <si>
-    <t>01/12/2019</t>
-  </si>
-  <si>
-    <t>02/12/2019</t>
-  </si>
-  <si>
-    <t>06/12/2019</t>
-  </si>
-  <si>
-    <t>07/12/2019</t>
-  </si>
-  <si>
-    <t>08/12/2019</t>
   </si>
   <si>
     <t>Day</t>
@@ -563,7 +431,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,13 +443,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -619,13 +480,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,33 +787,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DE136"/>
+  <dimension ref="A1:DE145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F137" sqref="F137"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136:D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:109" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1273,26 +1128,23 @@
       <c r="B2" t="s">
         <v>105</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>2019</v>
+      </c>
+      <c r="G2" t="s">
         <v>106</v>
       </c>
-      <c r="D2">
-        <v>16</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>2019</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>107</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>108</v>
-      </c>
-      <c r="I2" t="s">
-        <v>109</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -1301,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1310,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="O2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P2">
         <v>17</v>
@@ -1602,26 +1454,23 @@
       <c r="B3" t="s">
         <v>105</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>2019</v>
+      </c>
+      <c r="G3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" t="s">
         <v>112</v>
       </c>
-      <c r="D3">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>2019</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>113</v>
-      </c>
-      <c r="H3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" t="s">
-        <v>115</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -1630,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -1639,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P3">
         <v>23</v>
@@ -1931,26 +1780,23 @@
       <c r="B4" t="s">
         <v>105</v>
       </c>
-      <c r="C4" t="s">
-        <v>112</v>
+      <c r="C4">
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
         <v>2019</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1959,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1968,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P4">
         <v>19</v>
@@ -2260,26 +2106,23 @@
       <c r="B5" t="s">
         <v>105</v>
       </c>
-      <c r="C5" t="s">
-        <v>112</v>
+      <c r="C5">
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
         <v>2019</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -2288,7 +2131,7 @@
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M5">
         <v>2</v>
@@ -2297,7 +2140,7 @@
         <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P5">
         <v>13</v>
@@ -2589,26 +2432,23 @@
       <c r="B6" t="s">
         <v>105</v>
       </c>
-      <c r="C6" t="s">
-        <v>112</v>
+      <c r="C6">
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
         <v>2019</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2617,7 +2457,7 @@
         <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -2626,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P6">
         <v>23</v>
@@ -2918,26 +2758,23 @@
       <c r="B7" t="s">
         <v>105</v>
       </c>
-      <c r="C7" t="s">
-        <v>112</v>
+      <c r="C7">
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7">
         <v>2019</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -2946,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -2955,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P7">
         <v>14</v>
@@ -3247,27 +3084,24 @@
       <c r="B8" t="s">
         <v>105</v>
       </c>
-      <c r="C8" t="s">
-        <v>112</v>
+      <c r="C8">
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
         <v>2019</v>
       </c>
       <c r="G8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" t="s">
         <v>125</v>
       </c>
-      <c r="H8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" t="s">
-        <v>127</v>
-      </c>
       <c r="J8">
         <v>0</v>
       </c>
@@ -3275,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -3284,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P8">
         <v>16</v>
@@ -3576,26 +3410,23 @@
       <c r="B9" t="s">
         <v>105</v>
       </c>
-      <c r="C9" t="s">
-        <v>128</v>
+      <c r="C9">
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9">
         <v>2019</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -3604,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -3613,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P9">
         <v>17</v>
@@ -3905,26 +3736,23 @@
       <c r="B10" t="s">
         <v>105</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>2019</v>
+      </c>
+      <c r="G10" t="s">
         <v>128</v>
       </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>2019</v>
-      </c>
-      <c r="G10" t="s">
-        <v>131</v>
-      </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3933,7 +3761,7 @@
         <v>4</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -3942,7 +3770,7 @@
         <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P10">
         <v>13</v>
@@ -4234,26 +4062,23 @@
       <c r="B11" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
-        <v>134</v>
+      <c r="C11">
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
         <v>2019</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -4262,7 +4087,7 @@
         <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -4271,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P11">
         <v>13</v>
@@ -4563,26 +4388,23 @@
       <c r="B12" t="s">
         <v>105</v>
       </c>
-      <c r="C12" t="s">
-        <v>135</v>
+      <c r="C12">
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="F12">
         <v>2019</v>
       </c>
       <c r="G12" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" t="s">
         <v>113</v>
       </c>
-      <c r="H12" t="s">
-        <v>115</v>
-      </c>
       <c r="I12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -4591,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -4600,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P12">
         <v>12</v>
@@ -4892,26 +4714,23 @@
       <c r="B13" t="s">
         <v>105</v>
       </c>
-      <c r="C13" t="s">
-        <v>135</v>
+      <c r="C13">
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13">
         <v>2019</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -4920,7 +4739,7 @@
         <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -4929,7 +4748,7 @@
         <v>3</v>
       </c>
       <c r="O13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P13">
         <v>11</v>
@@ -5221,26 +5040,23 @@
       <c r="B14" t="s">
         <v>105</v>
       </c>
-      <c r="C14" t="s">
-        <v>135</v>
+      <c r="C14">
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="F14">
         <v>2019</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J14">
         <v>3</v>
@@ -5249,7 +5065,7 @@
         <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -5258,7 +5074,7 @@
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P14">
         <v>10</v>
@@ -5550,26 +5366,23 @@
       <c r="B15" t="s">
         <v>105</v>
       </c>
-      <c r="C15" t="s">
-        <v>135</v>
+      <c r="C15">
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15">
         <v>2019</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -5578,7 +5391,7 @@
         <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -5587,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P15">
         <v>21</v>
@@ -5879,26 +5692,23 @@
       <c r="B16" t="s">
         <v>105</v>
       </c>
-      <c r="C16" t="s">
-        <v>135</v>
+      <c r="C16">
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16">
         <v>2019</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -5907,7 +5717,7 @@
         <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -5916,7 +5726,7 @@
         <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P16">
         <v>15</v>
@@ -6208,26 +6018,23 @@
       <c r="B17" t="s">
         <v>105</v>
       </c>
-      <c r="C17" t="s">
-        <v>135</v>
+      <c r="C17">
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>8</v>
-      </c>
-      <c r="F17">
         <v>2019</v>
       </c>
       <c r="G17" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" t="s">
         <v>125</v>
       </c>
-      <c r="H17" t="s">
-        <v>127</v>
-      </c>
       <c r="I17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -6236,7 +6043,7 @@
         <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -6245,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="O17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P17">
         <v>9</v>
@@ -6537,26 +6344,23 @@
       <c r="B18" t="s">
         <v>105</v>
       </c>
-      <c r="C18" t="s">
-        <v>136</v>
+      <c r="C18">
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E18">
-        <v>8</v>
-      </c>
-      <c r="F18">
         <v>2019</v>
       </c>
       <c r="G18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -6565,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -6574,7 +6378,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P18">
         <v>13</v>
@@ -6866,26 +6670,23 @@
       <c r="B19" t="s">
         <v>105</v>
       </c>
-      <c r="C19" t="s">
-        <v>136</v>
+      <c r="C19">
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>8</v>
-      </c>
-      <c r="F19">
         <v>2019</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -6894,7 +6695,7 @@
         <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -6903,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="O19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P19">
         <v>8</v>
@@ -7195,26 +6996,23 @@
       <c r="B20" t="s">
         <v>105</v>
       </c>
-      <c r="C20" t="s">
-        <v>137</v>
+      <c r="C20">
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>8</v>
-      </c>
-      <c r="F20">
         <v>2019</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -7223,7 +7021,7 @@
         <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -7232,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P20">
         <v>11</v>
@@ -7524,26 +7322,23 @@
       <c r="B21" t="s">
         <v>105</v>
       </c>
-      <c r="C21" t="s">
-        <v>138</v>
+      <c r="C21">
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>8</v>
-      </c>
-      <c r="F21">
         <v>2019</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J21">
         <v>6</v>
@@ -7552,7 +7347,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M21">
         <v>2</v>
@@ -7561,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P21">
         <v>19</v>
@@ -7853,26 +7648,23 @@
       <c r="B22" t="s">
         <v>105</v>
       </c>
-      <c r="C22" t="s">
-        <v>138</v>
+      <c r="C22">
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>8</v>
-      </c>
-      <c r="F22">
         <v>2019</v>
       </c>
       <c r="G22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -7881,7 +7673,7 @@
         <v>2</v>
       </c>
       <c r="L22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -7890,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P22">
         <v>14</v>
@@ -8182,26 +7974,23 @@
       <c r="B23" t="s">
         <v>105</v>
       </c>
-      <c r="C23" t="s">
-        <v>138</v>
+      <c r="C23">
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>8</v>
-      </c>
-      <c r="F23">
         <v>2019</v>
       </c>
       <c r="G23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -8210,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -8219,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P23">
         <v>20</v>
@@ -8511,26 +8300,23 @@
       <c r="B24" t="s">
         <v>105</v>
       </c>
-      <c r="C24" t="s">
-        <v>138</v>
+      <c r="C24">
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>8</v>
-      </c>
-      <c r="F24">
         <v>2019</v>
       </c>
       <c r="G24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -8539,7 +8325,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -8548,7 +8334,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P24">
         <v>9</v>
@@ -8840,26 +8626,23 @@
       <c r="B25" t="s">
         <v>105</v>
       </c>
-      <c r="C25" t="s">
-        <v>138</v>
+      <c r="C25">
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>8</v>
-      </c>
-      <c r="F25">
         <v>2019</v>
       </c>
       <c r="G25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -8868,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -8877,7 +8660,7 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P25">
         <v>15</v>
@@ -9169,26 +8952,23 @@
       <c r="B26" t="s">
         <v>105</v>
       </c>
-      <c r="C26" t="s">
-        <v>138</v>
+      <c r="C26">
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>8</v>
-      </c>
-      <c r="F26">
         <v>2019</v>
       </c>
       <c r="G26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J26">
         <v>3</v>
@@ -9197,7 +8977,7 @@
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -9206,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="O26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P26">
         <v>15</v>
@@ -9498,26 +9278,23 @@
       <c r="B27" t="s">
         <v>105</v>
       </c>
-      <c r="C27" t="s">
-        <v>139</v>
+      <c r="C27">
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>9</v>
-      </c>
-      <c r="F27">
         <v>2019</v>
       </c>
       <c r="G27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" t="s">
         <v>113</v>
-      </c>
-      <c r="H27" t="s">
-        <v>121</v>
-      </c>
-      <c r="I27" t="s">
-        <v>115</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -9526,7 +9303,7 @@
         <v>2</v>
       </c>
       <c r="L27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M27">
         <v>2</v>
@@ -9535,7 +9312,7 @@
         <v>1</v>
       </c>
       <c r="O27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P27">
         <v>15</v>
@@ -9827,26 +9604,23 @@
       <c r="B28" t="s">
         <v>105</v>
       </c>
-      <c r="C28" t="s">
-        <v>139</v>
+      <c r="C28">
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>9</v>
-      </c>
-      <c r="F28">
         <v>2019</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -9855,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -9864,7 +9638,7 @@
         <v>1</v>
       </c>
       <c r="O28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P28">
         <v>15</v>
@@ -10156,26 +9930,23 @@
       <c r="B29" t="s">
         <v>105</v>
       </c>
-      <c r="C29" t="s">
-        <v>140</v>
+      <c r="C29">
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E29">
-        <v>9</v>
-      </c>
-      <c r="F29">
         <v>2019</v>
       </c>
       <c r="G29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -10184,7 +9955,7 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -10193,7 +9964,7 @@
         <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P29">
         <v>12</v>
@@ -10485,26 +10256,23 @@
       <c r="B30" t="s">
         <v>105</v>
       </c>
-      <c r="C30" t="s">
-        <v>141</v>
+      <c r="C30">
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>9</v>
-      </c>
-      <c r="F30">
         <v>2019</v>
       </c>
       <c r="G30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" t="s">
         <v>113</v>
       </c>
-      <c r="H30" t="s">
-        <v>115</v>
-      </c>
       <c r="I30" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -10513,7 +10281,7 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M30">
         <v>2</v>
@@ -10522,7 +10290,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P30">
         <v>9</v>
@@ -10814,26 +10582,23 @@
       <c r="B31" t="s">
         <v>105</v>
       </c>
-      <c r="C31" t="s">
-        <v>141</v>
+      <c r="C31">
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E31">
-        <v>9</v>
-      </c>
-      <c r="F31">
         <v>2019</v>
       </c>
       <c r="G31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J31">
         <v>4</v>
@@ -10842,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -10851,7 +10616,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P31">
         <v>11</v>
@@ -11143,26 +10908,23 @@
       <c r="B32" t="s">
         <v>105</v>
       </c>
-      <c r="C32" t="s">
-        <v>141</v>
+      <c r="C32">
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>9</v>
-      </c>
-      <c r="F32">
         <v>2019</v>
       </c>
       <c r="G32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H32" t="s">
+        <v>122</v>
+      </c>
+      <c r="I32" t="s">
         <v>124</v>
-      </c>
-      <c r="I32" t="s">
-        <v>126</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -11171,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -11180,7 +10942,7 @@
         <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P32">
         <v>14</v>
@@ -11472,26 +11234,23 @@
       <c r="B33" t="s">
         <v>105</v>
       </c>
-      <c r="C33" t="s">
-        <v>141</v>
+      <c r="C33">
+        <v>14</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>9</v>
-      </c>
-      <c r="F33">
         <v>2019</v>
       </c>
       <c r="G33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -11500,7 +11259,7 @@
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -11509,7 +11268,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P33">
         <v>14</v>
@@ -11801,26 +11560,23 @@
       <c r="B34" t="s">
         <v>105</v>
       </c>
-      <c r="C34" t="s">
-        <v>141</v>
+      <c r="C34">
+        <v>14</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>9</v>
-      </c>
-      <c r="F34">
         <v>2019</v>
       </c>
       <c r="G34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -11829,7 +11585,7 @@
         <v>2</v>
       </c>
       <c r="L34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -11838,7 +11594,7 @@
         <v>1</v>
       </c>
       <c r="O34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P34">
         <v>12</v>
@@ -12130,26 +11886,23 @@
       <c r="B35" t="s">
         <v>105</v>
       </c>
-      <c r="C35" t="s">
-        <v>141</v>
+      <c r="C35">
+        <v>14</v>
       </c>
       <c r="D35">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>9</v>
-      </c>
-      <c r="F35">
         <v>2019</v>
       </c>
       <c r="G35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -12158,7 +11911,7 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -12167,7 +11920,7 @@
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P35">
         <v>12</v>
@@ -12459,26 +12212,23 @@
       <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="C36" t="s">
-        <v>142</v>
+      <c r="C36">
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>9</v>
-      </c>
-      <c r="F36">
         <v>2019</v>
       </c>
       <c r="G36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H36" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -12487,7 +12237,7 @@
         <v>3</v>
       </c>
       <c r="L36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -12496,7 +12246,7 @@
         <v>2</v>
       </c>
       <c r="O36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P36">
         <v>22</v>
@@ -12788,26 +12538,23 @@
       <c r="B37" t="s">
         <v>105</v>
       </c>
-      <c r="C37" t="s">
-        <v>142</v>
+      <c r="C37">
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E37">
-        <v>9</v>
-      </c>
-      <c r="F37">
         <v>2019</v>
       </c>
       <c r="G37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -12816,7 +12563,7 @@
         <v>5</v>
       </c>
       <c r="L37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -12825,7 +12572,7 @@
         <v>1</v>
       </c>
       <c r="O37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P37">
         <v>9</v>
@@ -13117,26 +12864,23 @@
       <c r="B38" t="s">
         <v>105</v>
       </c>
-      <c r="C38" t="s">
-        <v>143</v>
+      <c r="C38">
+        <v>20</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>9</v>
-      </c>
-      <c r="F38">
         <v>2019</v>
       </c>
       <c r="G38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -13145,7 +12889,7 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -13154,7 +12898,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P38">
         <v>19</v>
@@ -13446,26 +13190,23 @@
       <c r="B39" t="s">
         <v>105</v>
       </c>
-      <c r="C39" t="s">
-        <v>144</v>
+      <c r="C39">
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E39">
-        <v>9</v>
-      </c>
-      <c r="F39">
         <v>2019</v>
       </c>
       <c r="G39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J39">
         <v>4</v>
@@ -13474,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -13483,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P39">
         <v>24</v>
@@ -13775,26 +13516,23 @@
       <c r="B40" t="s">
         <v>105</v>
       </c>
-      <c r="C40" t="s">
-        <v>144</v>
+      <c r="C40">
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E40">
-        <v>9</v>
-      </c>
-      <c r="F40">
         <v>2019</v>
       </c>
       <c r="G40" t="s">
+        <v>111</v>
+      </c>
+      <c r="H40" t="s">
+        <v>115</v>
+      </c>
+      <c r="I40" t="s">
         <v>113</v>
-      </c>
-      <c r="H40" t="s">
-        <v>117</v>
-      </c>
-      <c r="I40" t="s">
-        <v>115</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -13803,7 +13541,7 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -13812,7 +13550,7 @@
         <v>1</v>
       </c>
       <c r="O40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P40">
         <v>17</v>
@@ -14104,26 +13842,23 @@
       <c r="B41" t="s">
         <v>105</v>
       </c>
-      <c r="C41" t="s">
-        <v>144</v>
+      <c r="C41">
+        <v>21</v>
       </c>
       <c r="D41">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E41">
-        <v>9</v>
-      </c>
-      <c r="F41">
         <v>2019</v>
       </c>
       <c r="G41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J41">
         <v>2</v>
@@ -14132,7 +13867,7 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -14141,7 +13876,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P41">
         <v>6</v>
@@ -14433,26 +14168,23 @@
       <c r="B42" t="s">
         <v>105</v>
       </c>
-      <c r="C42" t="s">
-        <v>144</v>
+      <c r="C42">
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <v>9</v>
-      </c>
-      <c r="F42">
         <v>2019</v>
       </c>
       <c r="G42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I42" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J42">
         <v>2</v>
@@ -14461,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M42">
         <v>2</v>
@@ -14470,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P42">
         <v>20</v>
@@ -14762,26 +14494,23 @@
       <c r="B43" t="s">
         <v>105</v>
       </c>
-      <c r="C43" t="s">
-        <v>144</v>
+      <c r="C43">
+        <v>21</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E43">
-        <v>9</v>
-      </c>
-      <c r="F43">
         <v>2019</v>
       </c>
       <c r="G43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -14790,7 +14519,7 @@
         <v>3</v>
       </c>
       <c r="L43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -14799,7 +14528,7 @@
         <v>2</v>
       </c>
       <c r="O43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P43">
         <v>11</v>
@@ -15091,26 +14820,23 @@
       <c r="B44" t="s">
         <v>105</v>
       </c>
-      <c r="C44" t="s">
-        <v>145</v>
+      <c r="C44">
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E44">
-        <v>9</v>
-      </c>
-      <c r="F44">
         <v>2019</v>
       </c>
       <c r="G44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -15119,7 +14845,7 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -15128,7 +14854,7 @@
         <v>1</v>
       </c>
       <c r="O44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P44">
         <v>23</v>
@@ -15420,26 +15146,23 @@
       <c r="B45" t="s">
         <v>105</v>
       </c>
-      <c r="C45" t="s">
-        <v>145</v>
+      <c r="C45">
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>9</v>
-      </c>
-      <c r="F45">
         <v>2019</v>
       </c>
       <c r="G45" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -15448,7 +15171,7 @@
         <v>2</v>
       </c>
       <c r="L45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -15457,7 +15180,7 @@
         <v>1</v>
       </c>
       <c r="O45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P45">
         <v>17</v>
@@ -15749,26 +15472,23 @@
       <c r="B46" t="s">
         <v>105</v>
       </c>
-      <c r="C46" t="s">
-        <v>146</v>
+      <c r="C46">
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E46">
-        <v>9</v>
-      </c>
-      <c r="F46">
         <v>2019</v>
       </c>
       <c r="G46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -15777,7 +15497,7 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -15786,7 +15506,7 @@
         <v>1</v>
       </c>
       <c r="O46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P46">
         <v>12</v>
@@ -16078,26 +15798,23 @@
       <c r="B47" t="s">
         <v>105</v>
       </c>
-      <c r="C47" t="s">
-        <v>147</v>
+      <c r="C47">
+        <v>27</v>
       </c>
       <c r="D47">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>9</v>
-      </c>
-      <c r="F47">
         <v>2019</v>
       </c>
       <c r="G47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I47" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -16106,7 +15823,7 @@
         <v>2</v>
       </c>
       <c r="L47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -16115,7 +15832,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P47">
         <v>12</v>
@@ -16407,26 +16124,23 @@
       <c r="B48" t="s">
         <v>105</v>
       </c>
-      <c r="C48" t="s">
-        <v>148</v>
+      <c r="C48">
+        <v>28</v>
       </c>
       <c r="D48">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E48">
-        <v>9</v>
-      </c>
-      <c r="F48">
         <v>2019</v>
       </c>
       <c r="G48" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" t="s">
         <v>113</v>
       </c>
-      <c r="H48" t="s">
-        <v>115</v>
-      </c>
       <c r="I48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -16435,7 +16149,7 @@
         <v>3</v>
       </c>
       <c r="L48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -16444,7 +16158,7 @@
         <v>1</v>
       </c>
       <c r="O48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P48">
         <v>8</v>
@@ -16736,26 +16450,23 @@
       <c r="B49" t="s">
         <v>105</v>
       </c>
-      <c r="C49" t="s">
-        <v>148</v>
+      <c r="C49">
+        <v>28</v>
       </c>
       <c r="D49">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E49">
-        <v>9</v>
-      </c>
-      <c r="F49">
         <v>2019</v>
       </c>
       <c r="G49" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H49" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -16764,7 +16475,7 @@
         <v>3</v>
       </c>
       <c r="L49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -16773,7 +16484,7 @@
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P49">
         <v>17</v>
@@ -17065,26 +16776,23 @@
       <c r="B50" t="s">
         <v>105</v>
       </c>
-      <c r="C50" t="s">
-        <v>148</v>
+      <c r="C50">
+        <v>28</v>
       </c>
       <c r="D50">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E50">
-        <v>9</v>
-      </c>
-      <c r="F50">
         <v>2019</v>
       </c>
       <c r="G50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I50" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -17093,7 +16801,7 @@
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -17102,7 +16810,7 @@
         <v>1</v>
       </c>
       <c r="O50" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P50">
         <v>15</v>
@@ -17394,26 +17102,23 @@
       <c r="B51" t="s">
         <v>105</v>
       </c>
-      <c r="C51" t="s">
-        <v>148</v>
+      <c r="C51">
+        <v>28</v>
       </c>
       <c r="D51">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <v>9</v>
-      </c>
-      <c r="F51">
         <v>2019</v>
       </c>
       <c r="G51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -17422,7 +17127,7 @@
         <v>3</v>
       </c>
       <c r="L51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -17431,7 +17136,7 @@
         <v>1</v>
       </c>
       <c r="O51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P51">
         <v>10</v>
@@ -17723,26 +17428,23 @@
       <c r="B52" t="s">
         <v>105</v>
       </c>
-      <c r="C52" t="s">
-        <v>148</v>
+      <c r="C52">
+        <v>28</v>
       </c>
       <c r="D52">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E52">
-        <v>9</v>
-      </c>
-      <c r="F52">
         <v>2019</v>
       </c>
       <c r="G52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H52" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I52" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -17751,7 +17453,7 @@
         <v>3</v>
       </c>
       <c r="L52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -17760,7 +17462,7 @@
         <v>2</v>
       </c>
       <c r="O52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P52">
         <v>17</v>
@@ -18052,26 +17754,23 @@
       <c r="B53" t="s">
         <v>105</v>
       </c>
-      <c r="C53" t="s">
-        <v>148</v>
+      <c r="C53">
+        <v>28</v>
       </c>
       <c r="D53">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <v>9</v>
-      </c>
-      <c r="F53">
         <v>2019</v>
       </c>
       <c r="G53" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -18080,7 +17779,7 @@
         <v>2</v>
       </c>
       <c r="L53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M53">
         <v>2</v>
@@ -18089,7 +17788,7 @@
         <v>1</v>
       </c>
       <c r="O53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P53">
         <v>19</v>
@@ -18381,26 +18080,23 @@
       <c r="B54" t="s">
         <v>105</v>
       </c>
-      <c r="C54" t="s">
-        <v>149</v>
+      <c r="C54">
+        <v>29</v>
       </c>
       <c r="D54">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E54">
-        <v>9</v>
-      </c>
-      <c r="F54">
         <v>2019</v>
       </c>
       <c r="G54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H54" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -18409,7 +18105,7 @@
         <v>2</v>
       </c>
       <c r="L54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M54">
         <v>1</v>
@@ -18418,7 +18114,7 @@
         <v>1</v>
       </c>
       <c r="O54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P54">
         <v>17</v>
@@ -18710,26 +18406,23 @@
       <c r="B55" t="s">
         <v>105</v>
       </c>
-      <c r="C55" t="s">
-        <v>149</v>
+      <c r="C55">
+        <v>29</v>
       </c>
       <c r="D55">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E55">
-        <v>9</v>
-      </c>
-      <c r="F55">
         <v>2019</v>
       </c>
       <c r="G55" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -18738,7 +18431,7 @@
         <v>4</v>
       </c>
       <c r="L55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -18747,7 +18440,7 @@
         <v>1</v>
       </c>
       <c r="O55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P55">
         <v>8</v>
@@ -19039,26 +18732,23 @@
       <c r="B56" t="s">
         <v>105</v>
       </c>
-      <c r="C56" t="s">
-        <v>150</v>
+      <c r="C56">
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E56">
-        <v>10</v>
-      </c>
-      <c r="F56">
         <v>2019</v>
       </c>
       <c r="G56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -19067,7 +18757,7 @@
         <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M56">
         <v>2</v>
@@ -19076,7 +18766,7 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P56">
         <v>16</v>
@@ -19368,26 +19058,23 @@
       <c r="B57" t="s">
         <v>105</v>
       </c>
-      <c r="C57" t="s">
-        <v>151</v>
+      <c r="C57">
+        <v>5</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E57">
-        <v>10</v>
-      </c>
-      <c r="F57">
         <v>2019</v>
       </c>
       <c r="G57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I57" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -19396,7 +19083,7 @@
         <v>2</v>
       </c>
       <c r="L57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -19405,7 +19092,7 @@
         <v>0</v>
       </c>
       <c r="O57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P57">
         <v>20</v>
@@ -19697,26 +19384,23 @@
       <c r="B58" t="s">
         <v>105</v>
       </c>
-      <c r="C58" t="s">
-        <v>151</v>
+      <c r="C58">
+        <v>5</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E58">
-        <v>10</v>
-      </c>
-      <c r="F58">
         <v>2019</v>
       </c>
       <c r="G58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -19725,7 +19409,7 @@
         <v>2</v>
       </c>
       <c r="L58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -19734,7 +19418,7 @@
         <v>1</v>
       </c>
       <c r="O58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P58">
         <v>6</v>
@@ -20026,26 +19710,23 @@
       <c r="B59" t="s">
         <v>105</v>
       </c>
-      <c r="C59" t="s">
-        <v>151</v>
+      <c r="C59">
+        <v>5</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E59">
-        <v>10</v>
-      </c>
-      <c r="F59">
         <v>2019</v>
       </c>
       <c r="G59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I59" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -20054,7 +19735,7 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -20063,7 +19744,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P59">
         <v>11</v>
@@ -20355,26 +20036,23 @@
       <c r="B60" t="s">
         <v>105</v>
       </c>
-      <c r="C60" t="s">
-        <v>151</v>
+      <c r="C60">
+        <v>5</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E60">
-        <v>10</v>
-      </c>
-      <c r="F60">
         <v>2019</v>
       </c>
       <c r="G60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -20383,7 +20061,7 @@
         <v>2</v>
       </c>
       <c r="L60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M60">
         <v>1</v>
@@ -20392,7 +20070,7 @@
         <v>2</v>
       </c>
       <c r="O60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P60">
         <v>16</v>
@@ -20684,26 +20362,23 @@
       <c r="B61" t="s">
         <v>105</v>
       </c>
-      <c r="C61" t="s">
-        <v>151</v>
+      <c r="C61">
+        <v>5</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E61">
-        <v>10</v>
-      </c>
-      <c r="F61">
         <v>2019</v>
       </c>
       <c r="G61" t="s">
+        <v>123</v>
+      </c>
+      <c r="H61" t="s">
         <v>125</v>
       </c>
-      <c r="H61" t="s">
-        <v>127</v>
-      </c>
       <c r="I61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -20712,7 +20387,7 @@
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -20721,7 +20396,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P61">
         <v>15</v>
@@ -21013,26 +20688,23 @@
       <c r="B62" t="s">
         <v>105</v>
       </c>
-      <c r="C62" t="s">
-        <v>152</v>
+      <c r="C62">
+        <v>6</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E62">
-        <v>10</v>
-      </c>
-      <c r="F62">
         <v>2019</v>
       </c>
       <c r="G62" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="H62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I62" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J62">
         <v>5</v>
@@ -21041,7 +20713,7 @@
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M62">
         <v>4</v>
@@ -21050,7 +20722,7 @@
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P62">
         <v>13</v>
@@ -21342,26 +21014,23 @@
       <c r="B63" t="s">
         <v>105</v>
       </c>
-      <c r="C63" t="s">
-        <v>152</v>
+      <c r="C63">
+        <v>6</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E63">
-        <v>10</v>
-      </c>
-      <c r="F63">
         <v>2019</v>
       </c>
       <c r="G63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I63" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -21370,7 +21039,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -21379,7 +21048,7 @@
         <v>0</v>
       </c>
       <c r="O63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P63">
         <v>13</v>
@@ -21671,26 +21340,23 @@
       <c r="B64" t="s">
         <v>105</v>
       </c>
-      <c r="C64" t="s">
-        <v>152</v>
+      <c r="C64">
+        <v>6</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E64">
-        <v>10</v>
-      </c>
-      <c r="F64">
         <v>2019</v>
       </c>
       <c r="G64" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H64" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -21699,7 +21365,7 @@
         <v>2</v>
       </c>
       <c r="L64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -21708,7 +21374,7 @@
         <v>1</v>
       </c>
       <c r="O64" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P64">
         <v>24</v>
@@ -22000,26 +21666,23 @@
       <c r="B65" t="s">
         <v>105</v>
       </c>
-      <c r="C65" t="s">
-        <v>154</v>
+      <c r="C65">
+        <v>18</v>
       </c>
       <c r="D65">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E65">
-        <v>10</v>
-      </c>
-      <c r="F65">
         <v>2019</v>
       </c>
       <c r="G65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H65" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J65">
         <v>3</v>
@@ -22028,7 +21691,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M65">
         <v>2</v>
@@ -22037,7 +21700,7 @@
         <v>0</v>
       </c>
       <c r="O65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P65">
         <v>10</v>
@@ -22329,26 +21992,23 @@
       <c r="B66" t="s">
         <v>105</v>
       </c>
-      <c r="C66" t="s">
-        <v>155</v>
+      <c r="C66">
+        <v>19</v>
       </c>
       <c r="D66">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E66">
-        <v>10</v>
-      </c>
-      <c r="F66">
         <v>2019</v>
       </c>
       <c r="G66" t="s">
+        <v>111</v>
+      </c>
+      <c r="H66" t="s">
         <v>113</v>
       </c>
-      <c r="H66" t="s">
-        <v>115</v>
-      </c>
       <c r="I66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J66">
         <v>2</v>
@@ -22357,7 +22017,7 @@
         <v>2</v>
       </c>
       <c r="L66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -22366,7 +22026,7 @@
         <v>1</v>
       </c>
       <c r="O66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P66">
         <v>9</v>
@@ -22658,26 +22318,23 @@
       <c r="B67" t="s">
         <v>105</v>
       </c>
-      <c r="C67" t="s">
-        <v>155</v>
+      <c r="C67">
+        <v>19</v>
       </c>
       <c r="D67">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E67">
-        <v>10</v>
-      </c>
-      <c r="F67">
         <v>2019</v>
       </c>
       <c r="G67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H67" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -22686,7 +22343,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -22695,7 +22352,7 @@
         <v>0</v>
       </c>
       <c r="O67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P67">
         <v>20</v>
@@ -22987,26 +22644,23 @@
       <c r="B68" t="s">
         <v>105</v>
       </c>
-      <c r="C68" t="s">
-        <v>155</v>
+      <c r="C68">
+        <v>19</v>
       </c>
       <c r="D68">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E68">
-        <v>10</v>
-      </c>
-      <c r="F68">
         <v>2019</v>
       </c>
       <c r="G68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I68" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -23015,7 +22669,7 @@
         <v>1</v>
       </c>
       <c r="L68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -23024,7 +22678,7 @@
         <v>0</v>
       </c>
       <c r="O68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P68">
         <v>13</v>
@@ -23316,26 +22970,23 @@
       <c r="B69" t="s">
         <v>105</v>
       </c>
-      <c r="C69" t="s">
-        <v>155</v>
+      <c r="C69">
+        <v>19</v>
       </c>
       <c r="D69">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E69">
-        <v>10</v>
-      </c>
-      <c r="F69">
         <v>2019</v>
       </c>
       <c r="G69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H69" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J69">
         <v>2</v>
@@ -23344,7 +22995,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M69">
         <v>1</v>
@@ -23353,7 +23004,7 @@
         <v>0</v>
       </c>
       <c r="O69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P69">
         <v>18</v>
@@ -23645,26 +23296,23 @@
       <c r="B70" t="s">
         <v>105</v>
       </c>
-      <c r="C70" t="s">
-        <v>155</v>
+      <c r="C70">
+        <v>19</v>
       </c>
       <c r="D70">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E70">
-        <v>10</v>
-      </c>
-      <c r="F70">
         <v>2019</v>
       </c>
       <c r="G70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -23673,7 +23321,7 @@
         <v>1</v>
       </c>
       <c r="L70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M70">
         <v>1</v>
@@ -23682,7 +23330,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P70">
         <v>15</v>
@@ -23974,26 +23622,23 @@
       <c r="B71" t="s">
         <v>105</v>
       </c>
-      <c r="C71" t="s">
-        <v>155</v>
+      <c r="C71">
+        <v>19</v>
       </c>
       <c r="D71">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E71">
-        <v>10</v>
-      </c>
-      <c r="F71">
         <v>2019</v>
       </c>
       <c r="G71" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -24002,7 +23647,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M71">
         <v>0</v>
@@ -24011,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P71">
         <v>20</v>
@@ -24303,26 +23948,23 @@
       <c r="B72" t="s">
         <v>105</v>
       </c>
-      <c r="C72" t="s">
-        <v>156</v>
+      <c r="C72">
+        <v>20</v>
       </c>
       <c r="D72">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>10</v>
-      </c>
-      <c r="F72">
         <v>2019</v>
       </c>
       <c r="G72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H72" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J72">
         <v>3</v>
@@ -24331,7 +23973,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M72">
         <v>1</v>
@@ -24340,7 +23982,7 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P72">
         <v>16</v>
@@ -24632,26 +24274,23 @@
       <c r="B73" t="s">
         <v>105</v>
       </c>
-      <c r="C73" t="s">
-        <v>156</v>
+      <c r="C73">
+        <v>20</v>
       </c>
       <c r="D73">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E73">
-        <v>10</v>
-      </c>
-      <c r="F73">
         <v>2019</v>
       </c>
       <c r="G73" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H73" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J73">
         <v>2</v>
@@ -24660,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -24669,7 +24308,7 @@
         <v>0</v>
       </c>
       <c r="O73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P73">
         <v>9</v>
@@ -24961,26 +24600,23 @@
       <c r="B74" t="s">
         <v>105</v>
       </c>
-      <c r="C74" t="s">
-        <v>157</v>
+      <c r="C74">
+        <v>25</v>
       </c>
       <c r="D74">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E74">
-        <v>10</v>
-      </c>
-      <c r="F74">
         <v>2019</v>
       </c>
       <c r="G74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H74" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I74" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J74">
         <v>3</v>
@@ -24989,7 +24625,7 @@
         <v>1</v>
       </c>
       <c r="L74" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M74">
         <v>1</v>
@@ -24998,7 +24634,7 @@
         <v>1</v>
       </c>
       <c r="O74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P74">
         <v>18</v>
@@ -25290,26 +24926,23 @@
       <c r="B75" t="s">
         <v>105</v>
       </c>
-      <c r="C75" t="s">
-        <v>158</v>
+      <c r="C75">
+        <v>26</v>
       </c>
       <c r="D75">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E75">
-        <v>10</v>
-      </c>
-      <c r="F75">
         <v>2019</v>
       </c>
       <c r="G75" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I75" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J75">
         <v>2</v>
@@ -25318,7 +24951,7 @@
         <v>1</v>
       </c>
       <c r="L75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M75">
         <v>1</v>
@@ -25327,7 +24960,7 @@
         <v>0</v>
       </c>
       <c r="O75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P75">
         <v>21</v>
@@ -25619,26 +25252,23 @@
       <c r="B76" t="s">
         <v>105</v>
       </c>
-      <c r="C76" t="s">
-        <v>158</v>
+      <c r="C76">
+        <v>26</v>
       </c>
       <c r="D76">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E76">
-        <v>10</v>
-      </c>
-      <c r="F76">
         <v>2019</v>
       </c>
       <c r="G76" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H76" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I76" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J76">
         <v>2</v>
@@ -25647,7 +25277,7 @@
         <v>1</v>
       </c>
       <c r="L76" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M76">
         <v>1</v>
@@ -25656,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="O76" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P76">
         <v>14</v>
@@ -25948,26 +25578,23 @@
       <c r="B77" t="s">
         <v>105</v>
       </c>
-      <c r="C77" t="s">
-        <v>158</v>
+      <c r="C77">
+        <v>26</v>
       </c>
       <c r="D77">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E77">
-        <v>10</v>
-      </c>
-      <c r="F77">
         <v>2019</v>
       </c>
       <c r="G77" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I77" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J77">
         <v>2</v>
@@ -25976,7 +25603,7 @@
         <v>3</v>
       </c>
       <c r="L77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M77">
         <v>0</v>
@@ -25985,7 +25612,7 @@
         <v>2</v>
       </c>
       <c r="O77" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P77">
         <v>13</v>
@@ -26277,26 +25904,23 @@
       <c r="B78" t="s">
         <v>105</v>
       </c>
-      <c r="C78" t="s">
-        <v>158</v>
+      <c r="C78">
+        <v>26</v>
       </c>
       <c r="D78">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E78">
-        <v>10</v>
-      </c>
-      <c r="F78">
         <v>2019</v>
       </c>
       <c r="G78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H78" t="s">
+        <v>118</v>
+      </c>
+      <c r="I78" t="s">
         <v>120</v>
-      </c>
-      <c r="I78" t="s">
-        <v>122</v>
       </c>
       <c r="J78">
         <v>2</v>
@@ -26305,7 +25929,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M78">
         <v>1</v>
@@ -26314,7 +25938,7 @@
         <v>0</v>
       </c>
       <c r="O78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P78">
         <v>14</v>
@@ -26606,26 +26230,23 @@
       <c r="B79" t="s">
         <v>105</v>
       </c>
-      <c r="C79" t="s">
-        <v>158</v>
+      <c r="C79">
+        <v>26</v>
       </c>
       <c r="D79">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E79">
-        <v>10</v>
-      </c>
-      <c r="F79">
         <v>2019</v>
       </c>
       <c r="G79" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I79" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -26634,7 +26255,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M79">
         <v>0</v>
@@ -26643,7 +26264,7 @@
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P79">
         <v>13</v>
@@ -26935,26 +26556,23 @@
       <c r="B80" t="s">
         <v>105</v>
       </c>
-      <c r="C80" t="s">
-        <v>158</v>
+      <c r="C80">
+        <v>26</v>
       </c>
       <c r="D80">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E80">
-        <v>10</v>
-      </c>
-      <c r="F80">
         <v>2019</v>
       </c>
       <c r="G80" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H80" t="s">
+        <v>117</v>
+      </c>
+      <c r="I80" t="s">
         <v>119</v>
-      </c>
-      <c r="I80" t="s">
-        <v>121</v>
       </c>
       <c r="J80">
         <v>2</v>
@@ -26963,7 +26581,7 @@
         <v>2</v>
       </c>
       <c r="L80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M80">
         <v>1</v>
@@ -26972,7 +26590,7 @@
         <v>1</v>
       </c>
       <c r="O80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P80">
         <v>21</v>
@@ -27264,27 +26882,24 @@
       <c r="B81" t="s">
         <v>105</v>
       </c>
-      <c r="C81" t="s">
-        <v>159</v>
+      <c r="C81">
+        <v>27</v>
       </c>
       <c r="D81">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E81">
-        <v>10</v>
-      </c>
-      <c r="F81">
         <v>2019</v>
       </c>
       <c r="G81" t="s">
+        <v>111</v>
+      </c>
+      <c r="H81" t="s">
+        <v>121</v>
+      </c>
+      <c r="I81" t="s">
         <v>113</v>
       </c>
-      <c r="H81" t="s">
-        <v>123</v>
-      </c>
-      <c r="I81" t="s">
-        <v>115</v>
-      </c>
       <c r="J81">
         <v>0</v>
       </c>
@@ -27292,7 +26907,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M81">
         <v>0</v>
@@ -27301,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="O81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P81">
         <v>14</v>
@@ -27593,26 +27208,23 @@
       <c r="B82" t="s">
         <v>105</v>
       </c>
-      <c r="C82" t="s">
-        <v>159</v>
+      <c r="C82">
+        <v>27</v>
       </c>
       <c r="D82">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E82">
-        <v>10</v>
-      </c>
-      <c r="F82">
         <v>2019</v>
       </c>
       <c r="G82" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H82" t="s">
+        <v>124</v>
+      </c>
+      <c r="I82" t="s">
         <v>126</v>
-      </c>
-      <c r="I82" t="s">
-        <v>129</v>
       </c>
       <c r="J82">
         <v>4</v>
@@ -27621,7 +27233,7 @@
         <v>2</v>
       </c>
       <c r="L82" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M82">
         <v>2</v>
@@ -27630,7 +27242,7 @@
         <v>0</v>
       </c>
       <c r="O82" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P82">
         <v>12</v>
@@ -27922,26 +27534,23 @@
       <c r="B83" t="s">
         <v>105</v>
       </c>
-      <c r="C83" t="s">
-        <v>160</v>
+      <c r="C83">
+        <v>1</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E83">
-        <v>11</v>
-      </c>
-      <c r="F83">
         <v>2019</v>
       </c>
       <c r="G83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H83" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I83" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J83">
         <v>3</v>
@@ -27950,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M83">
         <v>3</v>
@@ -27959,7 +27568,7 @@
         <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P83">
         <v>12</v>
@@ -28251,26 +27860,23 @@
       <c r="B84" t="s">
         <v>105</v>
       </c>
-      <c r="C84" t="s">
-        <v>161</v>
+      <c r="C84">
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E84">
-        <v>11</v>
-      </c>
-      <c r="F84">
         <v>2019</v>
       </c>
       <c r="G84" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H84" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I84" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -28279,7 +27885,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M84">
         <v>0</v>
@@ -28288,7 +27894,7 @@
         <v>0</v>
       </c>
       <c r="O84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P84">
         <v>17</v>
@@ -28580,26 +28186,23 @@
       <c r="B85" t="s">
         <v>105</v>
       </c>
-      <c r="C85" t="s">
-        <v>161</v>
+      <c r="C85">
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E85">
-        <v>11</v>
-      </c>
-      <c r="F85">
         <v>2019</v>
       </c>
       <c r="G85" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H85" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J85">
         <v>5</v>
@@ -28608,7 +28211,7 @@
         <v>1</v>
       </c>
       <c r="L85" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M85">
         <v>2</v>
@@ -28617,7 +28220,7 @@
         <v>1</v>
       </c>
       <c r="O85" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P85">
         <v>17</v>
@@ -28909,26 +28512,23 @@
       <c r="B86" t="s">
         <v>105</v>
       </c>
-      <c r="C86" t="s">
-        <v>161</v>
+      <c r="C86">
+        <v>2</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E86">
-        <v>11</v>
-      </c>
-      <c r="F86">
         <v>2019</v>
       </c>
       <c r="G86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H86" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I86" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -28937,7 +28537,7 @@
         <v>2</v>
       </c>
       <c r="L86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M86">
         <v>1</v>
@@ -28946,7 +28546,7 @@
         <v>2</v>
       </c>
       <c r="O86" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P86">
         <v>23</v>
@@ -29238,26 +28838,23 @@
       <c r="B87" t="s">
         <v>105</v>
       </c>
-      <c r="C87" t="s">
-        <v>161</v>
+      <c r="C87">
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E87">
-        <v>11</v>
-      </c>
-      <c r="F87">
         <v>2019</v>
       </c>
       <c r="G87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I87" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J87">
         <v>8</v>
@@ -29266,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M87">
         <v>5</v>
@@ -29275,7 +28872,7 @@
         <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P87">
         <v>19</v>
@@ -29567,26 +29164,23 @@
       <c r="B88" t="s">
         <v>105</v>
       </c>
-      <c r="C88" t="s">
-        <v>161</v>
+      <c r="C88">
+        <v>2</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E88">
-        <v>11</v>
-      </c>
-      <c r="F88">
         <v>2019</v>
       </c>
       <c r="G88" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H88" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I88" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J88">
         <v>2</v>
@@ -29595,7 +29189,7 @@
         <v>2</v>
       </c>
       <c r="L88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M88">
         <v>1</v>
@@ -29604,7 +29198,7 @@
         <v>1</v>
       </c>
       <c r="O88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P88">
         <v>20</v>
@@ -29896,26 +29490,23 @@
       <c r="B89" t="s">
         <v>105</v>
       </c>
-      <c r="C89" t="s">
-        <v>161</v>
+      <c r="C89">
+        <v>2</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E89">
-        <v>11</v>
-      </c>
-      <c r="F89">
         <v>2019</v>
       </c>
       <c r="G89" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H89" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I89" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J89">
         <v>1</v>
@@ -29924,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M89">
         <v>0</v>
@@ -29933,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="O89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P89">
         <v>16</v>
@@ -30225,26 +29816,23 @@
       <c r="B90" t="s">
         <v>105</v>
       </c>
-      <c r="C90" t="s">
-        <v>162</v>
+      <c r="C90">
+        <v>3</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E90">
-        <v>11</v>
-      </c>
-      <c r="F90">
         <v>2019</v>
       </c>
       <c r="G90" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H90" t="s">
+        <v>120</v>
+      </c>
+      <c r="I90" t="s">
         <v>122</v>
-      </c>
-      <c r="I90" t="s">
-        <v>124</v>
       </c>
       <c r="J90">
         <v>2</v>
@@ -30253,7 +29841,7 @@
         <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M90">
         <v>1</v>
@@ -30262,7 +29850,7 @@
         <v>0</v>
       </c>
       <c r="O90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P90">
         <v>9</v>
@@ -30554,26 +30142,23 @@
       <c r="B91" t="s">
         <v>105</v>
       </c>
-      <c r="C91" t="s">
-        <v>162</v>
+      <c r="C91">
+        <v>3</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E91">
-        <v>11</v>
-      </c>
-      <c r="F91">
         <v>2019</v>
       </c>
       <c r="G91" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I91" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -30582,7 +30167,7 @@
         <v>3</v>
       </c>
       <c r="L91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M91">
         <v>1</v>
@@ -30591,7 +30176,7 @@
         <v>1</v>
       </c>
       <c r="O91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P91">
         <v>12</v>
@@ -30883,26 +30468,23 @@
       <c r="B92" t="s">
         <v>105</v>
       </c>
-      <c r="C92" t="s">
-        <v>163</v>
+      <c r="C92">
+        <v>8</v>
       </c>
       <c r="D92">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E92">
-        <v>11</v>
-      </c>
-      <c r="F92">
         <v>2019</v>
       </c>
       <c r="G92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H92" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I92" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J92">
         <v>1</v>
@@ -30911,7 +30493,7 @@
         <v>2</v>
       </c>
       <c r="L92" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M92">
         <v>1</v>
@@ -30920,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="O92" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P92">
         <v>11</v>
@@ -31212,26 +30794,23 @@
       <c r="B93" t="s">
         <v>105</v>
       </c>
-      <c r="C93" t="s">
-        <v>164</v>
+      <c r="C93">
+        <v>9</v>
       </c>
       <c r="D93">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E93">
-        <v>11</v>
-      </c>
-      <c r="F93">
         <v>2019</v>
       </c>
       <c r="G93" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I93" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J93">
         <v>2</v>
@@ -31240,7 +30819,7 @@
         <v>4</v>
       </c>
       <c r="L93" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M93">
         <v>1</v>
@@ -31249,7 +30828,7 @@
         <v>2</v>
       </c>
       <c r="O93" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P93">
         <v>7</v>
@@ -31541,26 +31120,23 @@
       <c r="B94" t="s">
         <v>105</v>
       </c>
-      <c r="C94" t="s">
-        <v>164</v>
+      <c r="C94">
+        <v>9</v>
       </c>
       <c r="D94">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E94">
-        <v>11</v>
-      </c>
-      <c r="F94">
         <v>2019</v>
       </c>
       <c r="G94" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I94" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J94">
         <v>2</v>
@@ -31569,7 +31145,7 @@
         <v>3</v>
       </c>
       <c r="L94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -31578,7 +31154,7 @@
         <v>2</v>
       </c>
       <c r="O94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P94">
         <v>18</v>
@@ -31870,26 +31446,23 @@
       <c r="B95" t="s">
         <v>105</v>
       </c>
-      <c r="C95" t="s">
-        <v>164</v>
+      <c r="C95">
+        <v>9</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E95">
-        <v>11</v>
-      </c>
-      <c r="F95">
         <v>2019</v>
       </c>
       <c r="G95" t="s">
+        <v>111</v>
+      </c>
+      <c r="H95" t="s">
+        <v>118</v>
+      </c>
+      <c r="I95" t="s">
         <v>113</v>
-      </c>
-      <c r="H95" t="s">
-        <v>120</v>
-      </c>
-      <c r="I95" t="s">
-        <v>115</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -31898,7 +31471,7 @@
         <v>1</v>
       </c>
       <c r="L95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -31907,7 +31480,7 @@
         <v>1</v>
       </c>
       <c r="O95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P95">
         <v>12</v>
@@ -32199,26 +31772,23 @@
       <c r="B96" t="s">
         <v>105</v>
       </c>
-      <c r="C96" t="s">
-        <v>164</v>
+      <c r="C96">
+        <v>9</v>
       </c>
       <c r="D96">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E96">
-        <v>11</v>
-      </c>
-      <c r="F96">
         <v>2019</v>
       </c>
       <c r="G96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I96" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J96">
         <v>3</v>
@@ -32227,7 +31797,7 @@
         <v>3</v>
       </c>
       <c r="L96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M96">
         <v>1</v>
@@ -32236,7 +31806,7 @@
         <v>0</v>
       </c>
       <c r="O96" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P96">
         <v>12</v>
@@ -32528,26 +32098,23 @@
       <c r="B97" t="s">
         <v>105</v>
       </c>
-      <c r="C97" t="s">
-        <v>164</v>
+      <c r="C97">
+        <v>9</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E97">
-        <v>11</v>
-      </c>
-      <c r="F97">
         <v>2019</v>
       </c>
       <c r="G97" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I97" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J97">
         <v>4</v>
@@ -32556,7 +32123,7 @@
         <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M97">
         <v>1</v>
@@ -32565,7 +32132,7 @@
         <v>0</v>
       </c>
       <c r="O97" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P97">
         <v>17</v>
@@ -32857,26 +32424,23 @@
       <c r="B98" t="s">
         <v>105</v>
       </c>
-      <c r="C98" t="s">
-        <v>165</v>
+      <c r="C98">
+        <v>10</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98">
-        <v>11</v>
-      </c>
-      <c r="F98">
         <v>2019</v>
       </c>
       <c r="G98" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="H98" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I98" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J98">
         <v>3</v>
@@ -32885,7 +32449,7 @@
         <v>1</v>
       </c>
       <c r="L98" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M98">
         <v>2</v>
@@ -32894,7 +32458,7 @@
         <v>0</v>
       </c>
       <c r="O98" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P98">
         <v>17</v>
@@ -33186,26 +32750,23 @@
       <c r="B99" t="s">
         <v>105</v>
       </c>
-      <c r="C99" t="s">
-        <v>165</v>
+      <c r="C99">
+        <v>10</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99">
-        <v>11</v>
-      </c>
-      <c r="F99">
         <v>2019</v>
       </c>
       <c r="G99" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I99" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -33214,7 +32775,7 @@
         <v>2</v>
       </c>
       <c r="L99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M99">
         <v>0</v>
@@ -33223,7 +32784,7 @@
         <v>1</v>
       </c>
       <c r="O99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P99">
         <v>9</v>
@@ -33515,26 +33076,23 @@
       <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="C100" t="s">
-        <v>165</v>
+      <c r="C100">
+        <v>10</v>
       </c>
       <c r="D100">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100">
-        <v>11</v>
-      </c>
-      <c r="F100">
         <v>2019</v>
       </c>
       <c r="G100" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H100" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I100" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -33543,7 +33101,7 @@
         <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M100">
         <v>0</v>
@@ -33552,7 +33110,7 @@
         <v>0</v>
       </c>
       <c r="O100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P100">
         <v>13</v>
@@ -33844,26 +33402,23 @@
       <c r="B101" t="s">
         <v>105</v>
       </c>
-      <c r="C101" t="s">
-        <v>166</v>
+      <c r="C101">
+        <v>22</v>
       </c>
       <c r="D101">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E101">
-        <v>11</v>
-      </c>
-      <c r="F101">
         <v>2019</v>
       </c>
       <c r="G101" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H101" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I101" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -33872,7 +33427,7 @@
         <v>3</v>
       </c>
       <c r="L101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M101">
         <v>0</v>
@@ -33881,7 +33436,7 @@
         <v>3</v>
       </c>
       <c r="O101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P101">
         <v>18</v>
@@ -34173,26 +33728,23 @@
       <c r="B102" t="s">
         <v>105</v>
       </c>
-      <c r="C102" t="s">
-        <v>167</v>
+      <c r="C102">
+        <v>23</v>
       </c>
       <c r="D102">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E102">
-        <v>11</v>
-      </c>
-      <c r="F102">
         <v>2019</v>
       </c>
       <c r="G102" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H102" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I102" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -34201,7 +33753,7 @@
         <v>2</v>
       </c>
       <c r="L102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M102">
         <v>0</v>
@@ -34210,7 +33762,7 @@
         <v>1</v>
       </c>
       <c r="O102" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P102">
         <v>17</v>
@@ -34502,26 +34054,23 @@
       <c r="B103" t="s">
         <v>105</v>
       </c>
-      <c r="C103" t="s">
-        <v>167</v>
+      <c r="C103">
+        <v>23</v>
       </c>
       <c r="D103">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E103">
-        <v>11</v>
-      </c>
-      <c r="F103">
         <v>2019</v>
       </c>
       <c r="G103" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -34530,7 +34079,7 @@
         <v>4</v>
       </c>
       <c r="L103" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M103">
         <v>0</v>
@@ -34539,7 +34088,7 @@
         <v>3</v>
       </c>
       <c r="O103" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P103">
         <v>12</v>
@@ -34831,26 +34380,23 @@
       <c r="B104" t="s">
         <v>105</v>
       </c>
-      <c r="C104" t="s">
-        <v>167</v>
+      <c r="C104">
+        <v>23</v>
       </c>
       <c r="D104">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E104">
-        <v>11</v>
-      </c>
-      <c r="F104">
         <v>2019</v>
       </c>
       <c r="G104" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H104" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I104" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -34859,7 +34405,7 @@
         <v>1</v>
       </c>
       <c r="L104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M104">
         <v>1</v>
@@ -34868,7 +34414,7 @@
         <v>1</v>
       </c>
       <c r="O104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P104">
         <v>27</v>
@@ -35160,26 +34706,23 @@
       <c r="B105" t="s">
         <v>105</v>
       </c>
-      <c r="C105" t="s">
-        <v>167</v>
+      <c r="C105">
+        <v>23</v>
       </c>
       <c r="D105">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E105">
-        <v>11</v>
-      </c>
-      <c r="F105">
         <v>2019</v>
       </c>
       <c r="G105" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I105" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J105">
         <v>2</v>
@@ -35188,7 +34731,7 @@
         <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M105">
         <v>1</v>
@@ -35197,7 +34740,7 @@
         <v>0</v>
       </c>
       <c r="O105" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P105">
         <v>11</v>
@@ -35489,26 +35032,23 @@
       <c r="B106" t="s">
         <v>105</v>
       </c>
-      <c r="C106" t="s">
-        <v>167</v>
+      <c r="C106">
+        <v>23</v>
       </c>
       <c r="D106">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E106">
-        <v>11</v>
-      </c>
-      <c r="F106">
         <v>2019</v>
       </c>
       <c r="G106" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H106" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I106" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -35517,7 +35057,7 @@
         <v>2</v>
       </c>
       <c r="L106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M106">
         <v>0</v>
@@ -35526,7 +35066,7 @@
         <v>1</v>
       </c>
       <c r="O106" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P106">
         <v>16</v>
@@ -35818,26 +35358,23 @@
       <c r="B107" t="s">
         <v>105</v>
       </c>
-      <c r="C107" t="s">
-        <v>167</v>
+      <c r="C107">
+        <v>23</v>
       </c>
       <c r="D107">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E107">
-        <v>11</v>
-      </c>
-      <c r="F107">
         <v>2019</v>
       </c>
       <c r="G107" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H107" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I107" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J107">
         <v>4</v>
@@ -35846,7 +35383,7 @@
         <v>1</v>
       </c>
       <c r="L107" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M107">
         <v>3</v>
@@ -35855,7 +35392,7 @@
         <v>1</v>
       </c>
       <c r="O107" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P107">
         <v>20</v>
@@ -36147,26 +35684,23 @@
       <c r="B108" t="s">
         <v>105</v>
       </c>
-      <c r="C108" t="s">
-        <v>168</v>
+      <c r="C108">
+        <v>24</v>
       </c>
       <c r="D108">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E108">
-        <v>11</v>
-      </c>
-      <c r="F108">
         <v>2019</v>
       </c>
       <c r="G108" t="s">
+        <v>111</v>
+      </c>
+      <c r="H108" t="s">
         <v>113</v>
       </c>
-      <c r="H108" t="s">
-        <v>115</v>
-      </c>
       <c r="I108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J108">
         <v>4</v>
@@ -36175,7 +35709,7 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M108">
         <v>2</v>
@@ -36184,7 +35718,7 @@
         <v>0</v>
       </c>
       <c r="O108" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P108">
         <v>14</v>
@@ -36476,26 +36010,23 @@
       <c r="B109" t="s">
         <v>105</v>
       </c>
-      <c r="C109" t="s">
-        <v>168</v>
+      <c r="C109">
+        <v>24</v>
       </c>
       <c r="D109">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E109">
-        <v>11</v>
-      </c>
-      <c r="F109">
         <v>2019</v>
       </c>
       <c r="G109" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I109" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J109">
         <v>1</v>
@@ -36504,7 +36035,7 @@
         <v>5</v>
       </c>
       <c r="L109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M109">
         <v>0</v>
@@ -36513,7 +36044,7 @@
         <v>1</v>
       </c>
       <c r="O109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P109">
         <v>22</v>
@@ -36805,26 +36336,23 @@
       <c r="B110" t="s">
         <v>105</v>
       </c>
-      <c r="C110" t="s">
-        <v>169</v>
+      <c r="C110">
+        <v>29</v>
       </c>
       <c r="D110">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E110">
-        <v>11</v>
-      </c>
-      <c r="F110">
         <v>2019</v>
       </c>
       <c r="G110" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H110" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I110" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J110">
         <v>2</v>
@@ -36833,7 +36361,7 @@
         <v>1</v>
       </c>
       <c r="L110" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M110">
         <v>1</v>
@@ -36842,7 +36370,7 @@
         <v>1</v>
       </c>
       <c r="O110" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P110">
         <v>17</v>
@@ -37134,26 +36662,23 @@
       <c r="B111" t="s">
         <v>105</v>
       </c>
-      <c r="C111" t="s">
-        <v>170</v>
+      <c r="C111">
+        <v>30</v>
       </c>
       <c r="D111">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E111">
-        <v>11</v>
-      </c>
-      <c r="F111">
         <v>2019</v>
       </c>
       <c r="G111" t="s">
+        <v>111</v>
+      </c>
+      <c r="H111" t="s">
+        <v>122</v>
+      </c>
+      <c r="I111" t="s">
         <v>113</v>
-      </c>
-      <c r="H111" t="s">
-        <v>124</v>
-      </c>
-      <c r="I111" t="s">
-        <v>115</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -37162,7 +36687,7 @@
         <v>1</v>
       </c>
       <c r="L111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M111">
         <v>0</v>
@@ -37171,7 +36696,7 @@
         <v>1</v>
       </c>
       <c r="O111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P111">
         <v>13</v>
@@ -37463,26 +36988,23 @@
       <c r="B112" t="s">
         <v>105</v>
       </c>
-      <c r="C112" t="s">
-        <v>170</v>
+      <c r="C112">
+        <v>30</v>
       </c>
       <c r="D112">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E112">
-        <v>11</v>
-      </c>
-      <c r="F112">
         <v>2019</v>
       </c>
       <c r="G112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H112" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I112" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -37491,7 +37013,7 @@
         <v>2</v>
       </c>
       <c r="L112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M112">
         <v>1</v>
@@ -37500,7 +37022,7 @@
         <v>2</v>
       </c>
       <c r="O112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P112">
         <v>13</v>
@@ -37792,26 +37314,23 @@
       <c r="B113" t="s">
         <v>105</v>
       </c>
-      <c r="C113" t="s">
-        <v>170</v>
+      <c r="C113">
+        <v>30</v>
       </c>
       <c r="D113">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E113">
-        <v>11</v>
-      </c>
-      <c r="F113">
         <v>2019</v>
       </c>
       <c r="G113" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H113" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I113" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J113">
         <v>1</v>
@@ -37820,7 +37339,7 @@
         <v>1</v>
       </c>
       <c r="L113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M113">
         <v>1</v>
@@ -37829,7 +37348,7 @@
         <v>0</v>
       </c>
       <c r="O113" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P113">
         <v>12</v>
@@ -38121,26 +37640,23 @@
       <c r="B114" t="s">
         <v>105</v>
       </c>
-      <c r="C114" t="s">
-        <v>170</v>
+      <c r="C114">
+        <v>30</v>
       </c>
       <c r="D114">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E114">
-        <v>11</v>
-      </c>
-      <c r="F114">
         <v>2019</v>
       </c>
       <c r="G114" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H114" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I114" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -38149,7 +37665,7 @@
         <v>3</v>
       </c>
       <c r="L114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M114">
         <v>0</v>
@@ -38158,7 +37674,7 @@
         <v>3</v>
       </c>
       <c r="O114" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P114">
         <v>8</v>
@@ -38450,26 +37966,23 @@
       <c r="B115" t="s">
         <v>105</v>
       </c>
-      <c r="C115" t="s">
-        <v>170</v>
+      <c r="C115">
+        <v>30</v>
       </c>
       <c r="D115">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E115">
-        <v>11</v>
-      </c>
-      <c r="F115">
         <v>2019</v>
       </c>
       <c r="G115" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H115" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I115" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -38478,7 +37991,7 @@
         <v>2</v>
       </c>
       <c r="L115" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M115">
         <v>1</v>
@@ -38487,7 +38000,7 @@
         <v>2</v>
       </c>
       <c r="O115" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P115">
         <v>24</v>
@@ -38779,26 +38292,23 @@
       <c r="B116" t="s">
         <v>105</v>
       </c>
-      <c r="C116" t="s">
-        <v>171</v>
+      <c r="C116">
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E116">
-        <v>12</v>
-      </c>
-      <c r="F116">
         <v>2019</v>
       </c>
       <c r="G116" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H116" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -38807,7 +38317,7 @@
         <v>2</v>
       </c>
       <c r="L116" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M116">
         <v>1</v>
@@ -38816,7 +38326,7 @@
         <v>1</v>
       </c>
       <c r="O116" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P116">
         <v>22</v>
@@ -39108,26 +38618,23 @@
       <c r="B117" t="s">
         <v>105</v>
       </c>
-      <c r="C117" t="s">
-        <v>171</v>
+      <c r="C117">
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E117">
-        <v>12</v>
-      </c>
-      <c r="F117">
         <v>2019</v>
       </c>
       <c r="G117" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H117" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I117" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J117">
         <v>2</v>
@@ -39136,7 +38643,7 @@
         <v>3</v>
       </c>
       <c r="L117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M117">
         <v>1</v>
@@ -39145,7 +38652,7 @@
         <v>2</v>
       </c>
       <c r="O117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P117">
         <v>19</v>
@@ -39437,26 +38944,23 @@
       <c r="B118" t="s">
         <v>105</v>
       </c>
-      <c r="C118" t="s">
-        <v>172</v>
+      <c r="C118">
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E118">
-        <v>12</v>
-      </c>
-      <c r="F118">
         <v>2019</v>
       </c>
       <c r="G118" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H118" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I118" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J118">
         <v>2</v>
@@ -39465,7 +38969,7 @@
         <v>1</v>
       </c>
       <c r="L118" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M118">
         <v>0</v>
@@ -39474,7 +38978,7 @@
         <v>1</v>
       </c>
       <c r="O118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P118">
         <v>18</v>
@@ -39766,26 +39270,23 @@
       <c r="B119" t="s">
         <v>105</v>
       </c>
-      <c r="C119" t="s">
-        <v>173</v>
+      <c r="C119">
+        <v>6</v>
       </c>
       <c r="D119">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E119">
-        <v>12</v>
-      </c>
-      <c r="F119">
         <v>2019</v>
       </c>
       <c r="G119" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H119" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I119" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J119">
         <v>2</v>
@@ -39794,7 +39295,7 @@
         <v>2</v>
       </c>
       <c r="L119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M119">
         <v>0</v>
@@ -39803,7 +39304,7 @@
         <v>1</v>
       </c>
       <c r="O119" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P119">
         <v>25</v>
@@ -40095,26 +39596,23 @@
       <c r="B120" t="s">
         <v>105</v>
       </c>
-      <c r="C120" t="s">
-        <v>174</v>
+      <c r="C120">
+        <v>7</v>
       </c>
       <c r="D120">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E120">
-        <v>12</v>
-      </c>
-      <c r="F120">
         <v>2019</v>
       </c>
       <c r="G120" t="s">
+        <v>111</v>
+      </c>
+      <c r="H120" t="s">
         <v>113</v>
       </c>
-      <c r="H120" t="s">
-        <v>115</v>
-      </c>
       <c r="I120" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J120">
         <v>2</v>
@@ -40123,7 +39621,7 @@
         <v>1</v>
       </c>
       <c r="L120" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M120">
         <v>1</v>
@@ -40132,7 +39630,7 @@
         <v>1</v>
       </c>
       <c r="O120" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P120">
         <v>18</v>
@@ -40424,26 +39922,23 @@
       <c r="B121" t="s">
         <v>105</v>
       </c>
-      <c r="C121" t="s">
-        <v>174</v>
+      <c r="C121">
+        <v>7</v>
       </c>
       <c r="D121">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E121">
-        <v>12</v>
-      </c>
-      <c r="F121">
         <v>2019</v>
       </c>
       <c r="G121" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H121" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I121" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J121">
         <v>5</v>
@@ -40452,7 +39947,7 @@
         <v>0</v>
       </c>
       <c r="L121" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M121">
         <v>1</v>
@@ -40461,7 +39956,7 @@
         <v>0</v>
       </c>
       <c r="O121" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P121">
         <v>23</v>
@@ -40753,26 +40248,23 @@
       <c r="B122" t="s">
         <v>105</v>
       </c>
-      <c r="C122" t="s">
-        <v>174</v>
+      <c r="C122">
+        <v>7</v>
       </c>
       <c r="D122">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E122">
-        <v>12</v>
-      </c>
-      <c r="F122">
         <v>2019</v>
       </c>
       <c r="G122" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H122" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I122" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -40781,7 +40273,7 @@
         <v>0</v>
       </c>
       <c r="L122" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M122">
         <v>0</v>
@@ -40790,7 +40282,7 @@
         <v>0</v>
       </c>
       <c r="O122" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P122">
         <v>10</v>
@@ -41082,26 +40574,23 @@
       <c r="B123" t="s">
         <v>105</v>
       </c>
-      <c r="C123" t="s">
-        <v>174</v>
+      <c r="C123">
+        <v>7</v>
       </c>
       <c r="D123">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E123">
-        <v>12</v>
-      </c>
-      <c r="F123">
         <v>2019</v>
       </c>
       <c r="G123" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H123" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I123" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J123">
         <v>2</v>
@@ -41110,7 +40599,7 @@
         <v>1</v>
       </c>
       <c r="L123" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M123">
         <v>0</v>
@@ -41119,7 +40608,7 @@
         <v>0</v>
       </c>
       <c r="O123" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P123">
         <v>7</v>
@@ -41411,26 +40900,23 @@
       <c r="B124" t="s">
         <v>105</v>
       </c>
-      <c r="C124" t="s">
-        <v>174</v>
+      <c r="C124">
+        <v>7</v>
       </c>
       <c r="D124">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E124">
-        <v>12</v>
-      </c>
-      <c r="F124">
         <v>2019</v>
       </c>
       <c r="G124" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H124" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I124" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J124">
         <v>3</v>
@@ -41439,7 +40925,7 @@
         <v>1</v>
       </c>
       <c r="L124" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M124">
         <v>1</v>
@@ -41448,7 +40934,7 @@
         <v>0</v>
       </c>
       <c r="O124" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P124">
         <v>25</v>
@@ -41740,26 +41226,23 @@
       <c r="B125" t="s">
         <v>105</v>
       </c>
-      <c r="C125" t="s">
-        <v>174</v>
+      <c r="C125">
+        <v>7</v>
       </c>
       <c r="D125">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E125">
-        <v>12</v>
-      </c>
-      <c r="F125">
         <v>2019</v>
       </c>
       <c r="G125" t="s">
+        <v>123</v>
+      </c>
+      <c r="H125" t="s">
+        <v>117</v>
+      </c>
+      <c r="I125" t="s">
         <v>125</v>
-      </c>
-      <c r="H125" t="s">
-        <v>119</v>
-      </c>
-      <c r="I125" t="s">
-        <v>127</v>
       </c>
       <c r="J125">
         <v>2</v>
@@ -41768,7 +41251,7 @@
         <v>1</v>
       </c>
       <c r="L125" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M125">
         <v>1</v>
@@ -41777,7 +41260,7 @@
         <v>0</v>
       </c>
       <c r="O125" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P125">
         <v>19</v>
@@ -42069,26 +41552,23 @@
       <c r="B126" t="s">
         <v>105</v>
       </c>
-      <c r="C126" t="s">
-        <v>175</v>
+      <c r="C126">
+        <v>8</v>
       </c>
       <c r="D126">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E126">
-        <v>12</v>
-      </c>
-      <c r="F126">
         <v>2019</v>
       </c>
       <c r="G126" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H126" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I126" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J126">
         <v>2</v>
@@ -42097,7 +41577,7 @@
         <v>0</v>
       </c>
       <c r="L126" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M126">
         <v>1</v>
@@ -42106,7 +41586,7 @@
         <v>0</v>
       </c>
       <c r="O126" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P126">
         <v>11</v>
@@ -42398,26 +41878,23 @@
       <c r="B127" t="s">
         <v>105</v>
       </c>
-      <c r="C127" t="s">
-        <v>175</v>
+      <c r="C127">
+        <v>8</v>
       </c>
       <c r="D127">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E127">
-        <v>12</v>
-      </c>
-      <c r="F127">
         <v>2019</v>
       </c>
       <c r="G127" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H127" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I127" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -42426,7 +41903,7 @@
         <v>1</v>
       </c>
       <c r="L127" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M127">
         <v>0</v>
@@ -42435,7 +41912,7 @@
         <v>0</v>
       </c>
       <c r="O127" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P127">
         <v>12</v>
@@ -42727,215 +42204,3087 @@
       <c r="B128" t="s">
         <v>105</v>
       </c>
-      <c r="C128" s="2"/>
+      <c r="C128">
+        <v>13</v>
+      </c>
       <c r="D128">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E128">
-        <v>12</v>
-      </c>
-      <c r="F128">
         <v>2019</v>
       </c>
-      <c r="G128" s="3">
-        <v>0.85416666666666663</v>
+      <c r="G128" t="s">
+        <v>106</v>
       </c>
       <c r="H128" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I128" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128" t="s">
+        <v>110</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>109</v>
+      </c>
+      <c r="P128">
+        <v>19</v>
+      </c>
+      <c r="Q128">
+        <v>6</v>
+      </c>
+      <c r="R128">
+        <v>8</v>
+      </c>
+      <c r="S128">
+        <v>4</v>
+      </c>
+      <c r="T128">
+        <v>10</v>
+      </c>
+      <c r="U128">
+        <v>7</v>
+      </c>
+      <c r="V128">
+        <v>11</v>
+      </c>
+      <c r="W128">
+        <v>1</v>
+      </c>
+      <c r="X128">
+        <v>1</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+      <c r="AB128">
+        <v>1.8</v>
+      </c>
+      <c r="AC128">
+        <v>4</v>
+      </c>
+      <c r="AD128">
+        <v>4.2</v>
+      </c>
+      <c r="AE128">
+        <v>1.85</v>
+      </c>
+      <c r="AF128">
+        <v>3.9</v>
+      </c>
+      <c r="AG128">
+        <v>4</v>
+      </c>
+      <c r="AH128">
+        <v>1.85</v>
+      </c>
+      <c r="AI128">
+        <v>3.8</v>
+      </c>
+      <c r="AJ128">
+        <v>4.05</v>
+      </c>
+      <c r="AK128">
+        <v>1.85</v>
+      </c>
+      <c r="AL128">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="AM128">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="AN128">
+        <v>1.83</v>
+      </c>
+      <c r="AO128">
+        <v>3.9</v>
+      </c>
+      <c r="AP128">
+        <v>4</v>
+      </c>
+      <c r="AQ128">
+        <v>1.85</v>
+      </c>
+      <c r="AR128">
+        <v>4</v>
+      </c>
+      <c r="AS128">
+        <v>3.9</v>
+      </c>
+      <c r="AT128">
+        <v>1.89</v>
+      </c>
+      <c r="AU128">
+        <v>4.2</v>
+      </c>
+      <c r="AV128">
+        <v>4.34</v>
+      </c>
+      <c r="AW128">
+        <v>1.84</v>
+      </c>
+      <c r="AX128">
+        <v>3.98</v>
+      </c>
+      <c r="AY128">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="AZ128">
+        <v>1.53</v>
+      </c>
+      <c r="BA128">
+        <v>2.5</v>
+      </c>
+      <c r="BB128">
+        <v>1.57</v>
+      </c>
+      <c r="BC128">
+        <v>2.52</v>
+      </c>
+      <c r="BD128">
+        <v>1.62</v>
+      </c>
+      <c r="BE128">
+        <v>2.63</v>
+      </c>
+      <c r="BF128">
+        <v>1.56</v>
+      </c>
+      <c r="BG128">
+        <v>2.42</v>
+      </c>
+      <c r="BH128">
+        <v>-0.5</v>
+      </c>
+      <c r="BI128">
+        <v>1.88</v>
+      </c>
+      <c r="BJ128">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="BK128">
+        <v>1.86</v>
+      </c>
+      <c r="BL128">
+        <v>2.06</v>
+      </c>
+      <c r="BM128">
+        <v>1.9</v>
+      </c>
+      <c r="BN128">
+        <v>2.1</v>
+      </c>
+      <c r="BO128">
+        <v>1.84</v>
+      </c>
+      <c r="BP128">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="BQ128">
+        <v>1.9</v>
+      </c>
+      <c r="BR128">
+        <v>3.8</v>
+      </c>
+      <c r="BS128">
+        <v>3.75</v>
+      </c>
+      <c r="BT128">
+        <v>1.95</v>
+      </c>
+      <c r="BU128">
+        <v>3.8</v>
+      </c>
+      <c r="BV128">
+        <v>3.7</v>
+      </c>
+      <c r="BW128">
+        <v>1.9</v>
+      </c>
+      <c r="BX128">
+        <v>3.8</v>
+      </c>
+      <c r="BY128">
+        <v>3.8</v>
+      </c>
+      <c r="BZ128">
+        <v>1.95</v>
+      </c>
+      <c r="CA128">
+        <v>3.94</v>
+      </c>
+      <c r="CB128">
+        <v>3.81</v>
+      </c>
+      <c r="CC128">
+        <v>1.88</v>
+      </c>
+      <c r="CD128">
+        <v>3.9</v>
+      </c>
+      <c r="CE128">
+        <v>3.8</v>
+      </c>
+      <c r="CF128">
+        <v>1.95</v>
+      </c>
+      <c r="CG128">
+        <v>3.9</v>
+      </c>
+      <c r="CH128">
+        <v>3.6</v>
+      </c>
+      <c r="CI128">
+        <v>2</v>
+      </c>
+      <c r="CJ128">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="CK128">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="CL128">
+        <v>1.92</v>
+      </c>
+      <c r="CM128">
+        <v>3.87</v>
+      </c>
+      <c r="CN128">
+        <v>3.74</v>
+      </c>
+      <c r="CO128">
+        <v>1.57</v>
+      </c>
+      <c r="CP128">
+        <v>2.37</v>
+      </c>
+      <c r="CQ128">
+        <v>1.61</v>
+      </c>
+      <c r="CR128">
+        <v>2.44</v>
+      </c>
+      <c r="CS128">
+        <v>1.62</v>
+      </c>
+      <c r="CT128">
+        <v>2.57</v>
+      </c>
+      <c r="CU128">
+        <v>1.57</v>
+      </c>
+      <c r="CV128">
+        <v>2.39</v>
+      </c>
+      <c r="CW128">
+        <v>-0.5</v>
+      </c>
+      <c r="CX128">
+        <v>1.96</v>
+      </c>
+      <c r="CY128">
+        <v>1.97</v>
+      </c>
+      <c r="CZ128">
+        <v>1.95</v>
+      </c>
+      <c r="DA128">
+        <v>1.97</v>
+      </c>
+      <c r="DB128">
+        <v>1.99</v>
+      </c>
+      <c r="DC128">
+        <v>1.98</v>
+      </c>
+      <c r="DD128">
+        <v>1.92</v>
+      </c>
+      <c r="DE128">
+        <v>1.94</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
         <v>105</v>
       </c>
+      <c r="C129">
+        <v>14</v>
+      </c>
       <c r="D129">
+        <v>12</v>
+      </c>
+      <c r="E129">
+        <v>2019</v>
+      </c>
+      <c r="G129" t="s">
+        <v>111</v>
+      </c>
+      <c r="H129" t="s">
+        <v>107</v>
+      </c>
+      <c r="I129" t="s">
+        <v>119</v>
+      </c>
+      <c r="J129">
+        <v>6</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129" t="s">
+        <v>114</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>114</v>
+      </c>
+      <c r="P129">
+        <v>29</v>
+      </c>
+      <c r="Q129">
+        <v>11</v>
+      </c>
+      <c r="R129">
         <v>14</v>
       </c>
-      <c r="E129">
+      <c r="S129">
+        <v>2</v>
+      </c>
+      <c r="T129">
+        <v>13</v>
+      </c>
+      <c r="U129">
         <v>12</v>
       </c>
-      <c r="F129">
-        <v>2019</v>
-      </c>
-      <c r="G129" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="H129" t="s">
-        <v>108</v>
-      </c>
-      <c r="I129" t="s">
-        <v>121</v>
+      <c r="V129">
+        <v>8</v>
+      </c>
+      <c r="W129">
+        <v>2</v>
+      </c>
+      <c r="X129">
+        <v>2</v>
+      </c>
+      <c r="Y129">
+        <v>2</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+      <c r="AB129">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AC129">
+        <v>9</v>
+      </c>
+      <c r="AD129">
+        <v>15</v>
+      </c>
+      <c r="AE129">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AF129">
+        <v>8.5</v>
+      </c>
+      <c r="AG129">
+        <v>17.5</v>
+      </c>
+      <c r="AH129">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AI129">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AJ129">
+        <v>15.5</v>
+      </c>
+      <c r="AK129">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AL129">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="AM129">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="AN129">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AO129">
+        <v>8.5</v>
+      </c>
+      <c r="AP129">
+        <v>17</v>
+      </c>
+      <c r="AQ129">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AR129">
+        <v>8.5</v>
+      </c>
+      <c r="AS129">
+        <v>19</v>
+      </c>
+      <c r="AT129">
+        <v>1.18</v>
+      </c>
+      <c r="AU129">
+        <v>9.65</v>
+      </c>
+      <c r="AV129">
+        <v>20</v>
+      </c>
+      <c r="AW129">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AX129">
+        <v>8.74</v>
+      </c>
+      <c r="AY129">
+        <v>16.7</v>
+      </c>
+      <c r="AZ129">
+        <v>1.22</v>
+      </c>
+      <c r="BA129">
+        <v>4.33</v>
+      </c>
+      <c r="BB129">
+        <v>1.22</v>
+      </c>
+      <c r="BC129">
+        <v>4.5</v>
+      </c>
+      <c r="BD129">
+        <v>1.25</v>
+      </c>
+      <c r="BE129">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="BF129">
+        <v>1.22</v>
+      </c>
+      <c r="BG129">
+        <v>4.16</v>
+      </c>
+      <c r="BH129">
+        <v>-2.5</v>
+      </c>
+      <c r="BI129">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="BJ129">
+        <v>1.9</v>
+      </c>
+      <c r="BK129">
+        <v>2</v>
+      </c>
+      <c r="BL129">
+        <v>1.9</v>
+      </c>
+      <c r="BM129">
+        <v>2.04</v>
+      </c>
+      <c r="BN129">
+        <v>1.91</v>
+      </c>
+      <c r="BO129">
+        <v>2</v>
+      </c>
+      <c r="BP129">
+        <v>1.86</v>
+      </c>
+      <c r="BQ129">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="BR129">
+        <v>10</v>
+      </c>
+      <c r="BS129">
+        <v>17</v>
+      </c>
+      <c r="BT129">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="BU129">
+        <v>10</v>
+      </c>
+      <c r="BV129">
+        <v>17</v>
+      </c>
+      <c r="BW129">
+        <v>1.2</v>
+      </c>
+      <c r="BX129">
+        <v>7</v>
+      </c>
+      <c r="BY129">
+        <v>13</v>
+      </c>
+      <c r="BZ129">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="CA129">
+        <v>11.24</v>
+      </c>
+      <c r="CB129">
+        <v>21.16</v>
+      </c>
+      <c r="CC129">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="CD129">
+        <v>10</v>
+      </c>
+      <c r="CE129">
+        <v>19</v>
+      </c>
+      <c r="CF129">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="CG129">
+        <v>11</v>
+      </c>
+      <c r="CH129">
+        <v>26</v>
+      </c>
+      <c r="CI129">
+        <v>1.2</v>
+      </c>
+      <c r="CJ129">
+        <v>12</v>
+      </c>
+      <c r="CK129">
+        <v>26</v>
+      </c>
+      <c r="CL129">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="CM129">
+        <v>10.37</v>
+      </c>
+      <c r="CN129">
+        <v>19.89</v>
+      </c>
+      <c r="CO129">
+        <v>1.2</v>
+      </c>
+      <c r="CP129">
+        <v>4.5</v>
+      </c>
+      <c r="CQ129">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="CR129">
+        <v>5.49</v>
+      </c>
+      <c r="CS129">
+        <v>1.22</v>
+      </c>
+      <c r="CT129">
+        <v>5.5</v>
+      </c>
+      <c r="CU129">
+        <v>1.17</v>
+      </c>
+      <c r="CV129">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="CW129">
+        <v>-2.75</v>
+      </c>
+      <c r="CX129">
+        <v>1.93</v>
+      </c>
+      <c r="CY129">
+        <v>2</v>
+      </c>
+      <c r="CZ129">
+        <v>1.93</v>
+      </c>
+      <c r="DA129">
+        <v>1.98</v>
+      </c>
+      <c r="DB129">
+        <v>1.95</v>
+      </c>
+      <c r="DC129">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="DD129">
+        <v>1.92</v>
+      </c>
+      <c r="DE129">
+        <v>1.95</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
         <v>105</v>
       </c>
+      <c r="C130">
+        <v>14</v>
+      </c>
       <c r="D130">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E130">
-        <v>12</v>
-      </c>
-      <c r="F130">
         <v>2019</v>
       </c>
+      <c r="G130" t="s">
+        <v>111</v>
+      </c>
       <c r="H130" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="I130" t="s">
         <v>117</v>
       </c>
+      <c r="J130">
+        <v>2</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130" t="s">
+        <v>114</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130" t="s">
+        <v>109</v>
+      </c>
+      <c r="P130">
+        <v>13</v>
+      </c>
+      <c r="Q130">
+        <v>6</v>
+      </c>
+      <c r="R130">
+        <v>5</v>
+      </c>
+      <c r="S130">
+        <v>2</v>
+      </c>
+      <c r="T130">
+        <v>12</v>
+      </c>
+      <c r="U130">
+        <v>9</v>
+      </c>
+      <c r="V130">
+        <v>3</v>
+      </c>
+      <c r="W130">
+        <v>4</v>
+      </c>
+      <c r="X130">
+        <v>2</v>
+      </c>
+      <c r="Y130">
+        <v>3</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>2</v>
+      </c>
+      <c r="AB130">
+        <v>4.2</v>
+      </c>
+      <c r="AC130">
+        <v>3.9</v>
+      </c>
+      <c r="AD130">
+        <v>1.8</v>
+      </c>
+      <c r="AE130">
+        <v>4</v>
+      </c>
+      <c r="AF130">
+        <v>3.9</v>
+      </c>
+      <c r="AG130">
+        <v>1.85</v>
+      </c>
+      <c r="AH130">
+        <v>4.05</v>
+      </c>
+      <c r="AI130">
+        <v>3.9</v>
+      </c>
+      <c r="AJ130">
+        <v>1.83</v>
+      </c>
+      <c r="AK130">
+        <v>4.24</v>
+      </c>
+      <c r="AL130">
+        <v>3.91</v>
+      </c>
+      <c r="AM130">
+        <v>1.85</v>
+      </c>
+      <c r="AN130">
+        <v>4</v>
+      </c>
+      <c r="AO130">
+        <v>3.9</v>
+      </c>
+      <c r="AP130">
+        <v>1.83</v>
+      </c>
+      <c r="AQ130">
+        <v>4.2</v>
+      </c>
+      <c r="AR130">
+        <v>4</v>
+      </c>
+      <c r="AS130">
+        <v>1.8</v>
+      </c>
+      <c r="AT130">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AU130">
+        <v>4.05</v>
+      </c>
+      <c r="AV130">
+        <v>1.9</v>
+      </c>
+      <c r="AW130">
+        <v>4.13</v>
+      </c>
+      <c r="AX130">
+        <v>3.9</v>
+      </c>
+      <c r="AY130">
+        <v>1.83</v>
+      </c>
+      <c r="AZ130">
+        <v>1.57</v>
+      </c>
+      <c r="BA130">
+        <v>2.37</v>
+      </c>
+      <c r="BB130">
+        <v>1.63</v>
+      </c>
+      <c r="BC130">
+        <v>2.39</v>
+      </c>
+      <c r="BD130">
+        <v>1.64</v>
+      </c>
+      <c r="BE130">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="BF130">
+        <v>1.59</v>
+      </c>
+      <c r="BG130">
+        <v>2.35</v>
+      </c>
+      <c r="BH130">
+        <v>0.75</v>
+      </c>
+      <c r="BI130">
+        <v>1.77</v>
+      </c>
+      <c r="BJ130">
+        <v>2.02</v>
+      </c>
+      <c r="BK130">
+        <v>1.82</v>
+      </c>
+      <c r="BL130">
+        <v>2.1</v>
+      </c>
+      <c r="BM130">
+        <v>1.9</v>
+      </c>
+      <c r="BN130">
+        <v>2.1</v>
+      </c>
+      <c r="BO130">
+        <v>1.82</v>
+      </c>
+      <c r="BP130">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="BQ130">
+        <v>4</v>
+      </c>
+      <c r="BR130">
+        <v>3.75</v>
+      </c>
+      <c r="BS130">
+        <v>1.9</v>
+      </c>
+      <c r="BT130">
+        <v>4</v>
+      </c>
+      <c r="BU130">
+        <v>3.9</v>
+      </c>
+      <c r="BV130">
+        <v>1.85</v>
+      </c>
+      <c r="BW130">
+        <v>3.9</v>
+      </c>
+      <c r="BX130">
+        <v>3.7</v>
+      </c>
+      <c r="BY130">
+        <v>1.9</v>
+      </c>
+      <c r="BZ130">
+        <v>3.78</v>
+      </c>
+      <c r="CA130">
+        <v>3.77</v>
+      </c>
+      <c r="CB130">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="CC130">
+        <v>3.8</v>
+      </c>
+      <c r="CD130">
+        <v>3.75</v>
+      </c>
+      <c r="CE130">
+        <v>1.91</v>
+      </c>
+      <c r="CF130">
+        <v>3.7</v>
+      </c>
+      <c r="CG130">
+        <v>3.9</v>
+      </c>
+      <c r="CH130">
+        <v>1.93</v>
+      </c>
+      <c r="CI130">
+        <v>4.05</v>
+      </c>
+      <c r="CJ130">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="CK130">
+        <v>2.02</v>
+      </c>
+      <c r="CL130">
+        <v>3.83</v>
+      </c>
+      <c r="CM130">
+        <v>3.81</v>
+      </c>
+      <c r="CN130">
+        <v>1.91</v>
+      </c>
+      <c r="CO130">
+        <v>1.57</v>
+      </c>
+      <c r="CP130">
+        <v>2.37</v>
+      </c>
+      <c r="CQ130">
+        <v>1.61</v>
+      </c>
+      <c r="CR130">
+        <v>2.44</v>
+      </c>
+      <c r="CS130">
+        <v>1.62</v>
+      </c>
+      <c r="CT130">
+        <v>2.5</v>
+      </c>
+      <c r="CU130">
+        <v>1.58</v>
+      </c>
+      <c r="CV130">
+        <v>2.38</v>
+      </c>
+      <c r="CW130">
+        <v>0.5</v>
+      </c>
+      <c r="CX130">
+        <v>1.95</v>
+      </c>
+      <c r="CY130">
+        <v>1.98</v>
+      </c>
+      <c r="CZ130">
+        <v>1.91</v>
+      </c>
+      <c r="DA130">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="DB130">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="DC130">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="DD130">
+        <v>1.94</v>
+      </c>
+      <c r="DE130">
+        <v>1.92</v>
+      </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
         <v>105</v>
       </c>
+      <c r="C131">
+        <v>14</v>
+      </c>
       <c r="D131">
+        <v>12</v>
+      </c>
+      <c r="E131">
+        <v>2019</v>
+      </c>
+      <c r="G131" t="s">
+        <v>111</v>
+      </c>
+      <c r="H131" t="s">
+        <v>108</v>
+      </c>
+      <c r="I131" t="s">
+        <v>115</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131" t="s">
+        <v>114</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131" t="s">
+        <v>109</v>
+      </c>
+      <c r="P131">
         <v>14</v>
       </c>
-      <c r="E131">
-        <v>12</v>
-      </c>
-      <c r="F131">
-        <v>2019</v>
-      </c>
-      <c r="H131" t="s">
-        <v>118</v>
-      </c>
-      <c r="I131" t="s">
-        <v>114</v>
+      <c r="Q131">
+        <v>15</v>
+      </c>
+      <c r="R131">
+        <v>4</v>
+      </c>
+      <c r="S131">
+        <v>2</v>
+      </c>
+      <c r="T131">
+        <v>9</v>
+      </c>
+      <c r="U131">
+        <v>5</v>
+      </c>
+      <c r="V131">
+        <v>4</v>
+      </c>
+      <c r="W131">
+        <v>7</v>
+      </c>
+      <c r="X131">
+        <v>2</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+      <c r="AB131">
+        <v>2</v>
+      </c>
+      <c r="AC131">
+        <v>3.6</v>
+      </c>
+      <c r="AD131">
+        <v>3.6</v>
+      </c>
+      <c r="AE131">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AF131">
+        <v>3.6</v>
+      </c>
+      <c r="AG131">
+        <v>3.5</v>
+      </c>
+      <c r="AH131">
+        <v>2</v>
+      </c>
+      <c r="AI131">
+        <v>3.6</v>
+      </c>
+      <c r="AJ131">
+        <v>3.6</v>
+      </c>
+      <c r="AK131">
+        <v>2.02</v>
+      </c>
+      <c r="AL131">
+        <v>3.75</v>
+      </c>
+      <c r="AM131">
+        <v>3.74</v>
+      </c>
+      <c r="AN131">
+        <v>2</v>
+      </c>
+      <c r="AO131">
+        <v>3.6</v>
+      </c>
+      <c r="AP131">
+        <v>3.7</v>
+      </c>
+      <c r="AQ131">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AR131">
+        <v>3.75</v>
+      </c>
+      <c r="AS131">
+        <v>3.5</v>
+      </c>
+      <c r="AT131">
+        <v>2.12</v>
+      </c>
+      <c r="AU131">
+        <v>3.75</v>
+      </c>
+      <c r="AV131">
+        <v>3.75</v>
+      </c>
+      <c r="AW131">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="AX131">
+        <v>3.63</v>
+      </c>
+      <c r="AY131">
+        <v>3.59</v>
+      </c>
+      <c r="AZ131">
+        <v>1.8</v>
+      </c>
+      <c r="BA131">
+        <v>2</v>
+      </c>
+      <c r="BB131">
+        <v>1.85</v>
+      </c>
+      <c r="BC131">
+        <v>2.06</v>
+      </c>
+      <c r="BD131">
+        <v>1.85</v>
+      </c>
+      <c r="BE131">
+        <v>2.12</v>
+      </c>
+      <c r="BF131">
+        <v>1.79</v>
+      </c>
+      <c r="BG131">
+        <v>2.04</v>
+      </c>
+      <c r="BH131">
+        <v>-0.5</v>
+      </c>
+      <c r="BI131">
+        <v>2.06</v>
+      </c>
+      <c r="BJ131">
+        <v>1.87</v>
+      </c>
+      <c r="BK131">
+        <v>2.02</v>
+      </c>
+      <c r="BL131">
+        <v>1.89</v>
+      </c>
+      <c r="BM131">
+        <v>2.1</v>
+      </c>
+      <c r="BN131">
+        <v>1.89</v>
+      </c>
+      <c r="BO131">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="BP131">
+        <v>1.84</v>
+      </c>
+      <c r="BQ131">
+        <v>1.85</v>
+      </c>
+      <c r="BR131">
+        <v>3.5</v>
+      </c>
+      <c r="BS131">
+        <v>4.2</v>
+      </c>
+      <c r="BT131">
+        <v>1.95</v>
+      </c>
+      <c r="BU131">
+        <v>3.6</v>
+      </c>
+      <c r="BV131">
+        <v>3.9</v>
+      </c>
+      <c r="BW131">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="BX131">
+        <v>3.4</v>
+      </c>
+      <c r="BY131">
+        <v>3.7</v>
+      </c>
+      <c r="BZ131">
+        <v>1.96</v>
+      </c>
+      <c r="CA131">
+        <v>3.67</v>
+      </c>
+      <c r="CB131">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="CC131">
+        <v>1.88</v>
+      </c>
+      <c r="CD131">
+        <v>3.6</v>
+      </c>
+      <c r="CE131">
+        <v>4.2</v>
+      </c>
+      <c r="CF131">
+        <v>1.91</v>
+      </c>
+      <c r="CG131">
+        <v>3.75</v>
+      </c>
+      <c r="CH131">
+        <v>3.9</v>
+      </c>
+      <c r="CI131">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="CJ131">
+        <v>3.76</v>
+      </c>
+      <c r="CK131">
+        <v>4.34</v>
+      </c>
+      <c r="CL131">
+        <v>1.94</v>
+      </c>
+      <c r="CM131">
+        <v>3.63</v>
+      </c>
+      <c r="CN131">
+        <v>3.91</v>
+      </c>
+      <c r="CO131">
+        <v>1.8</v>
+      </c>
+      <c r="CP131">
+        <v>2</v>
+      </c>
+      <c r="CQ131">
+        <v>1.79</v>
+      </c>
+      <c r="CR131">
+        <v>2.12</v>
+      </c>
+      <c r="CS131">
+        <v>1.82</v>
+      </c>
+      <c r="CT131">
+        <v>2.15</v>
+      </c>
+      <c r="CU131">
+        <v>1.77</v>
+      </c>
+      <c r="CV131">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="CW131">
+        <v>-0.5</v>
+      </c>
+      <c r="CX131">
+        <v>1.95</v>
+      </c>
+      <c r="CY131">
+        <v>1.98</v>
+      </c>
+      <c r="CZ131">
+        <v>1.96</v>
+      </c>
+      <c r="DA131">
+        <v>1.96</v>
+      </c>
+      <c r="DB131">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="DC131">
+        <v>1.99</v>
+      </c>
+      <c r="DD131">
+        <v>1.94</v>
+      </c>
+      <c r="DE131">
+        <v>1.92</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
         <v>105</v>
       </c>
+      <c r="C132">
+        <v>14</v>
+      </c>
       <c r="D132">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E132">
-        <v>12</v>
-      </c>
-      <c r="F132">
         <v>2019</v>
       </c>
+      <c r="G132" t="s">
+        <v>111</v>
+      </c>
       <c r="H132" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I132" t="s">
-        <v>119</v>
+        <v>112</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>4</v>
+      </c>
+      <c r="L132" t="s">
+        <v>110</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>110</v>
+      </c>
+      <c r="P132">
+        <v>9</v>
+      </c>
+      <c r="Q132">
+        <v>18</v>
+      </c>
+      <c r="R132">
+        <v>0</v>
+      </c>
+      <c r="S132">
+        <v>7</v>
+      </c>
+      <c r="T132">
+        <v>8</v>
+      </c>
+      <c r="U132">
+        <v>10</v>
+      </c>
+      <c r="V132">
+        <v>3</v>
+      </c>
+      <c r="W132">
+        <v>5</v>
+      </c>
+      <c r="X132">
+        <v>1</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <v>5</v>
+      </c>
+      <c r="AC132">
+        <v>4.33</v>
+      </c>
+      <c r="AD132">
+        <v>1.6</v>
+      </c>
+      <c r="AE132">
+        <v>5.25</v>
+      </c>
+      <c r="AF132">
+        <v>4.2</v>
+      </c>
+      <c r="AG132">
+        <v>1.62</v>
+      </c>
+      <c r="AH132">
+        <v>4.8</v>
+      </c>
+      <c r="AI132">
+        <v>4.2</v>
+      </c>
+      <c r="AJ132">
+        <v>1.65</v>
+      </c>
+      <c r="AK132">
+        <v>5.05</v>
+      </c>
+      <c r="AL132">
+        <v>4.22</v>
+      </c>
+      <c r="AM132">
+        <v>1.68</v>
+      </c>
+      <c r="AN132">
+        <v>5.25</v>
+      </c>
+      <c r="AO132">
+        <v>4</v>
+      </c>
+      <c r="AP132">
+        <v>1.63</v>
+      </c>
+      <c r="AQ132">
+        <v>4.8</v>
+      </c>
+      <c r="AR132">
+        <v>4.2</v>
+      </c>
+      <c r="AS132">
+        <v>1.67</v>
+      </c>
+      <c r="AT132">
+        <v>5.3</v>
+      </c>
+      <c r="AU132">
+        <v>4.54</v>
+      </c>
+      <c r="AV132">
+        <v>1.69</v>
+      </c>
+      <c r="AW132">
+        <v>4.95</v>
+      </c>
+      <c r="AX132">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="AY132">
+        <v>1.65</v>
+      </c>
+      <c r="AZ132">
+        <v>1.44</v>
+      </c>
+      <c r="BA132">
+        <v>2.75</v>
+      </c>
+      <c r="BB132">
+        <v>1.48</v>
+      </c>
+      <c r="BC132">
+        <v>2.8</v>
+      </c>
+      <c r="BD132">
+        <v>1.49</v>
+      </c>
+      <c r="BE132">
+        <v>2.88</v>
+      </c>
+      <c r="BF132">
+        <v>1.46</v>
+      </c>
+      <c r="BG132">
+        <v>2.7</v>
+      </c>
+      <c r="BH132">
+        <v>1</v>
+      </c>
+      <c r="BI132">
+        <v>1.83</v>
+      </c>
+      <c r="BJ132">
+        <v>2.1</v>
+      </c>
+      <c r="BK132">
+        <v>1.81</v>
+      </c>
+      <c r="BL132">
+        <v>2.12</v>
+      </c>
+      <c r="BM132">
+        <v>1.9</v>
+      </c>
+      <c r="BN132">
+        <v>2.12</v>
+      </c>
+      <c r="BO132">
+        <v>1.8</v>
+      </c>
+      <c r="BP132">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="BQ132">
+        <v>6</v>
+      </c>
+      <c r="BR132">
+        <v>4.75</v>
+      </c>
+      <c r="BS132">
+        <v>1.5</v>
+      </c>
+      <c r="BT132">
+        <v>5.5</v>
+      </c>
+      <c r="BU132">
+        <v>5</v>
+      </c>
+      <c r="BV132">
+        <v>1.5</v>
+      </c>
+      <c r="BW132">
+        <v>5.5</v>
+      </c>
+      <c r="BX132">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="BY132">
+        <v>1.55</v>
+      </c>
+      <c r="BZ132">
+        <v>6.29</v>
+      </c>
+      <c r="CA132">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="CB132">
+        <v>1.5</v>
+      </c>
+      <c r="CC132">
+        <v>6.5</v>
+      </c>
+      <c r="CD132">
+        <v>4.75</v>
+      </c>
+      <c r="CE132">
+        <v>1.47</v>
+      </c>
+      <c r="CF132">
+        <v>6</v>
+      </c>
+      <c r="CG132">
+        <v>4.8</v>
+      </c>
+      <c r="CH132">
+        <v>1.5</v>
+      </c>
+      <c r="CI132">
+        <v>6.5</v>
+      </c>
+      <c r="CJ132">
+        <v>5.05</v>
+      </c>
+      <c r="CK132">
+        <v>1.6</v>
+      </c>
+      <c r="CL132">
+        <v>5.84</v>
+      </c>
+      <c r="CM132">
+        <v>4.79</v>
+      </c>
+      <c r="CN132">
+        <v>1.5</v>
+      </c>
+      <c r="CO132">
+        <v>1.36</v>
+      </c>
+      <c r="CP132">
+        <v>3.2</v>
+      </c>
+      <c r="CQ132">
+        <v>1.39</v>
+      </c>
+      <c r="CR132">
+        <v>3.18</v>
+      </c>
+      <c r="CS132">
+        <v>1.43</v>
+      </c>
+      <c r="CT132">
+        <v>3.2</v>
+      </c>
+      <c r="CU132">
+        <v>1.38</v>
+      </c>
+      <c r="CV132">
+        <v>3.02</v>
+      </c>
+      <c r="CW132">
+        <v>1</v>
+      </c>
+      <c r="CX132">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="CY132">
+        <v>1.72</v>
+      </c>
+      <c r="CZ132">
+        <v>2.15</v>
+      </c>
+      <c r="DA132">
+        <v>1.78</v>
+      </c>
+      <c r="DB132">
+        <v>2.17</v>
+      </c>
+      <c r="DC132">
+        <v>1.97</v>
+      </c>
+      <c r="DD132">
+        <v>2.09</v>
+      </c>
+      <c r="DE132">
+        <v>1.78</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
         <v>105</v>
       </c>
+      <c r="C133">
+        <v>14</v>
+      </c>
       <c r="D133">
+        <v>12</v>
+      </c>
+      <c r="E133">
+        <v>2019</v>
+      </c>
+      <c r="G133" t="s">
+        <v>111</v>
+      </c>
+      <c r="H133" t="s">
+        <v>118</v>
+      </c>
+      <c r="I133" t="s">
+        <v>129</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133" t="s">
+        <v>109</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>109</v>
+      </c>
+      <c r="P133">
         <v>14</v>
       </c>
-      <c r="E133">
-        <v>12</v>
-      </c>
-      <c r="F133">
-        <v>2019</v>
-      </c>
-      <c r="H133" t="s">
-        <v>120</v>
-      </c>
-      <c r="I133" t="s">
-        <v>132</v>
+      <c r="Q133">
+        <v>15</v>
+      </c>
+      <c r="R133">
+        <v>3</v>
+      </c>
+      <c r="S133">
+        <v>2</v>
+      </c>
+      <c r="T133">
+        <v>19</v>
+      </c>
+      <c r="U133">
+        <v>16</v>
+      </c>
+      <c r="V133">
+        <v>2</v>
+      </c>
+      <c r="W133">
+        <v>3</v>
+      </c>
+      <c r="X133">
+        <v>2</v>
+      </c>
+      <c r="Y133">
+        <v>4</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+      <c r="AB133">
+        <v>2.8</v>
+      </c>
+      <c r="AC133">
+        <v>3.75</v>
+      </c>
+      <c r="AD133">
+        <v>2.37</v>
+      </c>
+      <c r="AE133">
+        <v>2.85</v>
+      </c>
+      <c r="AF133">
+        <v>3.5</v>
+      </c>
+      <c r="AG133">
+        <v>2.4</v>
+      </c>
+      <c r="AH133">
+        <v>2.8</v>
+      </c>
+      <c r="AI133">
+        <v>3.6</v>
+      </c>
+      <c r="AJ133">
+        <v>2.4</v>
+      </c>
+      <c r="AK133">
+        <v>2.83</v>
+      </c>
+      <c r="AL133">
+        <v>3.65</v>
+      </c>
+      <c r="AM133">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="AN133">
+        <v>2.8</v>
+      </c>
+      <c r="AO133">
+        <v>3.6</v>
+      </c>
+      <c r="AP133">
+        <v>2.4</v>
+      </c>
+      <c r="AQ133">
+        <v>2.8</v>
+      </c>
+      <c r="AR133">
+        <v>3.6</v>
+      </c>
+      <c r="AS133">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="AT133">
+        <v>2.95</v>
+      </c>
+      <c r="AU133">
+        <v>3.85</v>
+      </c>
+      <c r="AV133">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AW133">
+        <v>2.8</v>
+      </c>
+      <c r="AX133">
+        <v>3.58</v>
+      </c>
+      <c r="AY133">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="AZ133">
+        <v>1.66</v>
+      </c>
+      <c r="BA133">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB133">
+        <v>1.67</v>
+      </c>
+      <c r="BC133">
+        <v>2.31</v>
+      </c>
+      <c r="BD133">
+        <v>1.7</v>
+      </c>
+      <c r="BE133">
+        <v>2.35</v>
+      </c>
+      <c r="BF133">
+        <v>1.64</v>
+      </c>
+      <c r="BG133">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="BH133">
+        <v>0</v>
+      </c>
+      <c r="BI133">
+        <v>2.09</v>
+      </c>
+      <c r="BJ133">
+        <v>1.84</v>
+      </c>
+      <c r="BK133">
+        <v>2.09</v>
+      </c>
+      <c r="BL133">
+        <v>1.83</v>
+      </c>
+      <c r="BM133">
+        <v>2.14</v>
+      </c>
+      <c r="BN133">
+        <v>1.85</v>
+      </c>
+      <c r="BO133">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="BP133">
+        <v>1.81</v>
+      </c>
+      <c r="BQ133">
+        <v>2.87</v>
+      </c>
+      <c r="BR133">
+        <v>3.75</v>
+      </c>
+      <c r="BS133">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="BT133">
+        <v>2.7</v>
+      </c>
+      <c r="BU133">
+        <v>3.6</v>
+      </c>
+      <c r="BV133">
+        <v>2.5</v>
+      </c>
+      <c r="BW133">
+        <v>2.7</v>
+      </c>
+      <c r="BX133">
+        <v>3.5</v>
+      </c>
+      <c r="BY133">
+        <v>2.5</v>
+      </c>
+      <c r="BZ133">
+        <v>2.91</v>
+      </c>
+      <c r="CA133">
+        <v>3.62</v>
+      </c>
+      <c r="CB133">
+        <v>2.44</v>
+      </c>
+      <c r="CC133">
+        <v>2.8</v>
+      </c>
+      <c r="CD133">
+        <v>3.6</v>
+      </c>
+      <c r="CE133">
+        <v>2.4</v>
+      </c>
+      <c r="CF133">
+        <v>2.8</v>
+      </c>
+      <c r="CG133">
+        <v>3.7</v>
+      </c>
+      <c r="CH133">
+        <v>2.4</v>
+      </c>
+      <c r="CI133">
+        <v>2.93</v>
+      </c>
+      <c r="CJ133">
+        <v>3.82</v>
+      </c>
+      <c r="CK133">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="CL133">
+        <v>2.78</v>
+      </c>
+      <c r="CM133">
+        <v>3.61</v>
+      </c>
+      <c r="CN133">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="CO133">
+        <v>1.66</v>
+      </c>
+      <c r="CP133">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="CQ133">
+        <v>1.65</v>
+      </c>
+      <c r="CR133">
+        <v>2.35</v>
+      </c>
+      <c r="CS133">
+        <v>1.7</v>
+      </c>
+      <c r="CT133">
+        <v>2.41</v>
+      </c>
+      <c r="CU133">
+        <v>1.64</v>
+      </c>
+      <c r="CV133">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="CW133">
+        <v>0.25</v>
+      </c>
+      <c r="CX133">
+        <v>1.77</v>
+      </c>
+      <c r="CY133">
+        <v>2.02</v>
+      </c>
+      <c r="CZ133">
+        <v>1.81</v>
+      </c>
+      <c r="DA133">
+        <v>2.12</v>
+      </c>
+      <c r="DB133">
+        <v>1.84</v>
+      </c>
+      <c r="DC133">
+        <v>2.16</v>
+      </c>
+      <c r="DD133">
+        <v>1.78</v>
+      </c>
+      <c r="DE133">
+        <v>2.1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>105</v>
       </c>
+      <c r="C134">
+        <v>14</v>
+      </c>
       <c r="D134">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E134">
-        <v>12</v>
-      </c>
-      <c r="F134">
         <v>2019</v>
       </c>
+      <c r="G134" t="s">
+        <v>123</v>
+      </c>
       <c r="H134" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I134" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>3</v>
+      </c>
+      <c r="L134" t="s">
+        <v>110</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>110</v>
+      </c>
+      <c r="P134">
+        <v>4</v>
+      </c>
+      <c r="Q134">
+        <v>21</v>
+      </c>
+      <c r="R134">
+        <v>1</v>
+      </c>
+      <c r="S134">
+        <v>7</v>
+      </c>
+      <c r="T134">
+        <v>11</v>
+      </c>
+      <c r="U134">
+        <v>7</v>
+      </c>
+      <c r="V134">
+        <v>3</v>
+      </c>
+      <c r="W134">
+        <v>9</v>
+      </c>
+      <c r="X134">
+        <v>2</v>
+      </c>
+      <c r="Y134">
+        <v>1</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+      <c r="AB134">
+        <v>7</v>
+      </c>
+      <c r="AC134">
+        <v>4.75</v>
+      </c>
+      <c r="AD134">
+        <v>1.44</v>
+      </c>
+      <c r="AE134">
+        <v>6.25</v>
+      </c>
+      <c r="AF134">
+        <v>5</v>
+      </c>
+      <c r="AG134">
+        <v>1.45</v>
+      </c>
+      <c r="AH134">
+        <v>6.6</v>
+      </c>
+      <c r="AI134">
+        <v>4.7</v>
+      </c>
+      <c r="AJ134">
+        <v>1.45</v>
+      </c>
+      <c r="AK134">
+        <v>6.77</v>
+      </c>
+      <c r="AL134">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="AM134">
+        <v>1.45</v>
+      </c>
+      <c r="AN134">
+        <v>6.5</v>
+      </c>
+      <c r="AO134">
+        <v>5</v>
+      </c>
+      <c r="AP134">
+        <v>1.44</v>
+      </c>
+      <c r="AQ134">
+        <v>6.5</v>
+      </c>
+      <c r="AR134">
+        <v>5</v>
+      </c>
+      <c r="AS134">
+        <v>1.45</v>
+      </c>
+      <c r="AT134">
+        <v>7.05</v>
+      </c>
+      <c r="AU134">
+        <v>5.25</v>
+      </c>
+      <c r="AV134">
+        <v>1.47</v>
+      </c>
+      <c r="AW134">
+        <v>6.52</v>
+      </c>
+      <c r="AX134">
+        <v>4.93</v>
+      </c>
+      <c r="AY134">
+        <v>1.44</v>
+      </c>
+      <c r="AZ134">
+        <v>1.44</v>
+      </c>
+      <c r="BA134">
+        <v>2.75</v>
+      </c>
+      <c r="BB134">
+        <v>1.47</v>
+      </c>
+      <c r="BC134">
+        <v>2.83</v>
+      </c>
+      <c r="BD134">
+        <v>1.52</v>
+      </c>
+      <c r="BE134">
+        <v>2.85</v>
+      </c>
+      <c r="BF134">
+        <v>1.46</v>
+      </c>
+      <c r="BG134">
+        <v>2.7</v>
+      </c>
+      <c r="BH134">
+        <v>1.25</v>
+      </c>
+      <c r="BI134">
+        <v>1.94</v>
+      </c>
+      <c r="BJ134">
+        <v>1.99</v>
+      </c>
+      <c r="BK134">
+        <v>1.97</v>
+      </c>
+      <c r="BL134">
+        <v>1.95</v>
+      </c>
+      <c r="BM134">
+        <v>1.97</v>
+      </c>
+      <c r="BN134">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="BO134">
+        <v>1.91</v>
+      </c>
+      <c r="BP134">
+        <v>1.94</v>
+      </c>
+      <c r="BQ134">
+        <v>6.5</v>
+      </c>
+      <c r="BR134">
+        <v>5</v>
+      </c>
+      <c r="BS134">
+        <v>1.4</v>
+      </c>
+      <c r="BT134">
+        <v>6.75</v>
+      </c>
+      <c r="BU134">
+        <v>5</v>
+      </c>
+      <c r="BV134">
+        <v>1.42</v>
+      </c>
+      <c r="BW134">
+        <v>7.2</v>
+      </c>
+      <c r="BX134">
+        <v>5</v>
+      </c>
+      <c r="BY134">
+        <v>1.4</v>
+      </c>
+      <c r="BZ134">
+        <v>6.57</v>
+      </c>
+      <c r="CA134">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="CB134">
+        <v>1.46</v>
+      </c>
+      <c r="CC134">
+        <v>7</v>
+      </c>
+      <c r="CD134">
+        <v>5</v>
+      </c>
+      <c r="CE134">
+        <v>1.42</v>
+      </c>
+      <c r="CF134">
+        <v>6.5</v>
+      </c>
+      <c r="CG134">
+        <v>5</v>
+      </c>
+      <c r="CH134">
+        <v>1.45</v>
+      </c>
+      <c r="CI134">
+        <v>7.4</v>
+      </c>
+      <c r="CJ134">
+        <v>5.25</v>
+      </c>
+      <c r="CK134">
+        <v>1.48</v>
+      </c>
+      <c r="CL134">
+        <v>6.7</v>
+      </c>
+      <c r="CM134">
+        <v>4.99</v>
+      </c>
+      <c r="CN134">
+        <v>1.43</v>
+      </c>
+      <c r="CO134">
+        <v>1.5</v>
+      </c>
+      <c r="CP134">
+        <v>2.62</v>
+      </c>
+      <c r="CQ134">
+        <v>1.5</v>
+      </c>
+      <c r="CR134">
+        <v>2.74</v>
+      </c>
+      <c r="CS134">
+        <v>1.5</v>
+      </c>
+      <c r="CT134">
+        <v>2.92</v>
+      </c>
+      <c r="CU134">
+        <v>1.46</v>
+      </c>
+      <c r="CV134">
+        <v>2.69</v>
+      </c>
+      <c r="CW134">
+        <v>1.25</v>
+      </c>
+      <c r="CX134">
+        <v>1.88</v>
+      </c>
+      <c r="CY134">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="CZ134">
+        <v>1.86</v>
+      </c>
+      <c r="DA134">
+        <v>2.06</v>
+      </c>
+      <c r="DB134">
+        <v>1.95</v>
+      </c>
+      <c r="DC134">
+        <v>2.08</v>
+      </c>
+      <c r="DD134">
+        <v>1.9</v>
+      </c>
+      <c r="DE134">
+        <v>1.96</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
         <v>105</v>
       </c>
+      <c r="C135">
+        <v>15</v>
+      </c>
       <c r="D135">
+        <v>12</v>
+      </c>
+      <c r="E135">
+        <v>2019</v>
+      </c>
+      <c r="G135" t="s">
+        <v>111</v>
+      </c>
+      <c r="H135" t="s">
+        <v>121</v>
+      </c>
+      <c r="I135" t="s">
+        <v>124</v>
+      </c>
+      <c r="J135">
+        <v>2</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135" t="s">
+        <v>114</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>109</v>
+      </c>
+      <c r="P135">
+        <v>17</v>
+      </c>
+      <c r="Q135">
+        <v>6</v>
+      </c>
+      <c r="R135">
+        <v>7</v>
+      </c>
+      <c r="S135">
+        <v>5</v>
+      </c>
+      <c r="T135">
+        <v>20</v>
+      </c>
+      <c r="U135">
         <v>15</v>
       </c>
-      <c r="E135">
-        <v>12</v>
-      </c>
-      <c r="F135">
-        <v>2019</v>
-      </c>
-      <c r="H135" t="s">
-        <v>123</v>
-      </c>
-      <c r="I135" t="s">
-        <v>126</v>
+      <c r="V135">
+        <v>5</v>
+      </c>
+      <c r="W135">
+        <v>2</v>
+      </c>
+      <c r="X135">
+        <v>3</v>
+      </c>
+      <c r="Y135">
+        <v>3</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+      <c r="AB135">
+        <v>2.7</v>
+      </c>
+      <c r="AC135">
+        <v>3.4</v>
+      </c>
+      <c r="AD135">
+        <v>2.6</v>
+      </c>
+      <c r="AE135">
+        <v>2.6</v>
+      </c>
+      <c r="AF135">
+        <v>3.5</v>
+      </c>
+      <c r="AG135">
+        <v>2.65</v>
+      </c>
+      <c r="AH135">
+        <v>2.6</v>
+      </c>
+      <c r="AI135">
+        <v>3.45</v>
+      </c>
+      <c r="AJ135">
+        <v>2.65</v>
+      </c>
+      <c r="AK135">
+        <v>2.62</v>
+      </c>
+      <c r="AL135">
+        <v>3.43</v>
+      </c>
+      <c r="AM135">
+        <v>2.81</v>
+      </c>
+      <c r="AN135">
+        <v>2.6</v>
+      </c>
+      <c r="AO135">
+        <v>3.3</v>
+      </c>
+      <c r="AP135">
+        <v>2.75</v>
+      </c>
+      <c r="AQ135">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AR135">
+        <v>3.4</v>
+      </c>
+      <c r="AS135">
+        <v>2.63</v>
+      </c>
+      <c r="AT135">
+        <v>2.75</v>
+      </c>
+      <c r="AU135">
+        <v>3.66</v>
+      </c>
+      <c r="AV135">
+        <v>2.81</v>
+      </c>
+      <c r="AW135">
+        <v>2.6</v>
+      </c>
+      <c r="AX135">
+        <v>3.41</v>
+      </c>
+      <c r="AY135">
+        <v>2.68</v>
+      </c>
+      <c r="AZ135">
+        <v>1.72</v>
+      </c>
+      <c r="BA135">
+        <v>2.1</v>
+      </c>
+      <c r="BB135">
+        <v>1.78</v>
+      </c>
+      <c r="BC135">
+        <v>2.13</v>
+      </c>
+      <c r="BD135">
+        <v>1.79</v>
+      </c>
+      <c r="BE135">
+        <v>2.19</v>
+      </c>
+      <c r="BF135">
+        <v>1.74</v>
+      </c>
+      <c r="BG135">
+        <v>2.09</v>
+      </c>
+      <c r="BH135">
+        <v>0</v>
+      </c>
+      <c r="BI135">
+        <v>1.92</v>
+      </c>
+      <c r="BJ135">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="BK135">
+        <v>1.88</v>
+      </c>
+      <c r="BL135">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="BM135">
+        <v>1.97</v>
+      </c>
+      <c r="BN135">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="BO135">
+        <v>1.89</v>
+      </c>
+      <c r="BP135">
+        <v>1.96</v>
+      </c>
+      <c r="BQ135">
+        <v>2.62</v>
+      </c>
+      <c r="BR135">
+        <v>3.5</v>
+      </c>
+      <c r="BS135">
+        <v>2.6</v>
+      </c>
+      <c r="BT135">
+        <v>2.65</v>
+      </c>
+      <c r="BU135">
+        <v>3.4</v>
+      </c>
+      <c r="BV135">
+        <v>2.65</v>
+      </c>
+      <c r="BW135">
+        <v>2.6</v>
+      </c>
+      <c r="BX135">
+        <v>3.5</v>
+      </c>
+      <c r="BY135">
+        <v>2.6</v>
+      </c>
+      <c r="BZ135">
+        <v>2.68</v>
+      </c>
+      <c r="CA135">
+        <v>3.51</v>
+      </c>
+      <c r="CB135">
+        <v>2.69</v>
+      </c>
+      <c r="CC135">
+        <v>2.75</v>
+      </c>
+      <c r="CD135">
+        <v>3.4</v>
+      </c>
+      <c r="CE135">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="CF135">
+        <v>2.63</v>
+      </c>
+      <c r="CG135">
+        <v>3.5</v>
+      </c>
+      <c r="CH135">
+        <v>2.63</v>
+      </c>
+      <c r="CI135">
+        <v>2.91</v>
+      </c>
+      <c r="CJ135">
+        <v>3.6</v>
+      </c>
+      <c r="CK135">
+        <v>2.72</v>
+      </c>
+      <c r="CL135">
+        <v>2.64</v>
+      </c>
+      <c r="CM135">
+        <v>3.48</v>
+      </c>
+      <c r="CN135">
+        <v>2.61</v>
+      </c>
+      <c r="CO135">
+        <v>1.72</v>
+      </c>
+      <c r="CP135">
+        <v>2.1</v>
+      </c>
+      <c r="CQ135">
+        <v>1.74</v>
+      </c>
+      <c r="CR135">
+        <v>2.19</v>
+      </c>
+      <c r="CS135">
+        <v>1.8</v>
+      </c>
+      <c r="CT135">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="CU135">
+        <v>1.71</v>
+      </c>
+      <c r="CV135">
+        <v>2.13</v>
+      </c>
+      <c r="CW135">
+        <v>0</v>
+      </c>
+      <c r="CX135">
+        <v>1.96</v>
+      </c>
+      <c r="CY135">
+        <v>1.97</v>
+      </c>
+      <c r="CZ135">
+        <v>1.95</v>
+      </c>
+      <c r="DA135">
+        <v>1.97</v>
+      </c>
+      <c r="DB135">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="DC135">
+        <v>2</v>
+      </c>
+      <c r="DD135">
+        <v>1.94</v>
+      </c>
+      <c r="DE135">
+        <v>1.93</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:109" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
         <v>105</v>
       </c>
+      <c r="C136">
+        <v>15</v>
+      </c>
       <c r="D136">
+        <v>12</v>
+      </c>
+      <c r="E136">
+        <v>2019</v>
+      </c>
+      <c r="G136" t="s">
+        <v>128</v>
+      </c>
+      <c r="H136" t="s">
+        <v>125</v>
+      </c>
+      <c r="I136" t="s">
+        <v>126</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136" t="s">
+        <v>114</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136" t="s">
+        <v>109</v>
+      </c>
+      <c r="P136">
+        <v>11</v>
+      </c>
+      <c r="Q136">
+        <v>17</v>
+      </c>
+      <c r="R136">
+        <v>5</v>
+      </c>
+      <c r="S136">
+        <v>3</v>
+      </c>
+      <c r="T136">
         <v>15</v>
       </c>
-      <c r="E136">
+      <c r="U136">
         <v>12</v>
       </c>
-      <c r="F136">
+      <c r="V136">
+        <v>7</v>
+      </c>
+      <c r="W136">
+        <v>6</v>
+      </c>
+      <c r="X136">
+        <v>1</v>
+      </c>
+      <c r="Y136">
+        <v>4</v>
+      </c>
+      <c r="Z136">
+        <v>1</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+      <c r="AB136">
+        <v>1.9</v>
+      </c>
+      <c r="AC136">
+        <v>3.75</v>
+      </c>
+      <c r="AD136">
+        <v>3.6</v>
+      </c>
+      <c r="AE136">
+        <v>2</v>
+      </c>
+      <c r="AF136">
+        <v>3.7</v>
+      </c>
+      <c r="AG136">
+        <v>3.6</v>
+      </c>
+      <c r="AH136">
+        <v>1.95</v>
+      </c>
+      <c r="AI136">
+        <v>3.8</v>
+      </c>
+      <c r="AJ136">
+        <v>3.6</v>
+      </c>
+      <c r="AK136">
+        <v>1.97</v>
+      </c>
+      <c r="AL136">
+        <v>3.93</v>
+      </c>
+      <c r="AM136">
+        <v>3.77</v>
+      </c>
+      <c r="AN136">
+        <v>1.95</v>
+      </c>
+      <c r="AO136">
+        <v>3.8</v>
+      </c>
+      <c r="AP136">
+        <v>3.6</v>
+      </c>
+      <c r="AQ136">
+        <v>1.93</v>
+      </c>
+      <c r="AR136">
+        <v>3.8</v>
+      </c>
+      <c r="AS136">
+        <v>3.5</v>
+      </c>
+      <c r="AT136">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="AU136">
+        <v>4</v>
+      </c>
+      <c r="AV136">
+        <v>3.78</v>
+      </c>
+      <c r="AW136">
+        <v>1.96</v>
+      </c>
+      <c r="AX136">
+        <v>3.79</v>
+      </c>
+      <c r="AY136">
+        <v>3.61</v>
+      </c>
+      <c r="AZ136">
+        <v>1.66</v>
+      </c>
+      <c r="BA136">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB136">
+        <v>1.66</v>
+      </c>
+      <c r="BC136">
+        <v>2.33</v>
+      </c>
+      <c r="BD136">
+        <v>1.74</v>
+      </c>
+      <c r="BE136">
+        <v>2.33</v>
+      </c>
+      <c r="BF136">
+        <v>1.66</v>
+      </c>
+      <c r="BG136">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="BH136">
+        <v>-0.5</v>
+      </c>
+      <c r="BI136">
+        <v>1.99</v>
+      </c>
+      <c r="BJ136">
+        <v>1.94</v>
+      </c>
+      <c r="BK136">
+        <v>1.97</v>
+      </c>
+      <c r="BL136">
+        <v>1.95</v>
+      </c>
+      <c r="BM136">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="BN136">
+        <v>1.95</v>
+      </c>
+      <c r="BO136">
+        <v>1.96</v>
+      </c>
+      <c r="BP136">
+        <v>1.89</v>
+      </c>
+      <c r="BQ136">
+        <v>1.9</v>
+      </c>
+      <c r="BR136">
+        <v>3.8</v>
+      </c>
+      <c r="BS136">
+        <v>3.8</v>
+      </c>
+      <c r="BT136">
+        <v>1.95</v>
+      </c>
+      <c r="BU136">
+        <v>3.8</v>
+      </c>
+      <c r="BV136">
+        <v>3.6</v>
+      </c>
+      <c r="BW136">
+        <v>2</v>
+      </c>
+      <c r="BX136">
+        <v>3.6</v>
+      </c>
+      <c r="BY136">
+        <v>3.6</v>
+      </c>
+      <c r="BZ136">
+        <v>1.88</v>
+      </c>
+      <c r="CA136">
+        <v>4.03</v>
+      </c>
+      <c r="CB136">
+        <v>3.99</v>
+      </c>
+      <c r="CC136">
+        <v>1.88</v>
+      </c>
+      <c r="CD136">
+        <v>3.9</v>
+      </c>
+      <c r="CE136">
+        <v>3.8</v>
+      </c>
+      <c r="CF136">
+        <v>1.87</v>
+      </c>
+      <c r="CG136">
+        <v>3.9</v>
+      </c>
+      <c r="CH136">
+        <v>3.9</v>
+      </c>
+      <c r="CI136">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="CJ136">
+        <v>4.05</v>
+      </c>
+      <c r="CK136">
+        <v>4.05</v>
+      </c>
+      <c r="CL136">
+        <v>1.9</v>
+      </c>
+      <c r="CM136">
+        <v>3.89</v>
+      </c>
+      <c r="CN136">
+        <v>3.8</v>
+      </c>
+      <c r="CO136">
+        <v>1.57</v>
+      </c>
+      <c r="CP136">
+        <v>2.37</v>
+      </c>
+      <c r="CQ136">
+        <v>1.61</v>
+      </c>
+      <c r="CR136">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="CS136">
+        <v>1.64</v>
+      </c>
+      <c r="CT136">
+        <v>2.5</v>
+      </c>
+      <c r="CU136">
+        <v>1.58</v>
+      </c>
+      <c r="CV136">
+        <v>2.38</v>
+      </c>
+      <c r="CW136">
+        <v>-0.5</v>
+      </c>
+      <c r="CX136">
+        <v>1.88</v>
+      </c>
+      <c r="CY136">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="CZ136">
+        <v>1.88</v>
+      </c>
+      <c r="DA136">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="DB136">
+        <v>2</v>
+      </c>
+      <c r="DC136">
+        <v>2.08</v>
+      </c>
+      <c r="DD136">
+        <v>1.88</v>
+      </c>
+      <c r="DE136">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="137" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="C137">
+        <v>17</v>
+      </c>
+      <c r="D137">
+        <v>12</v>
+      </c>
+      <c r="E137">
         <v>2019</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H137" t="s">
+        <v>119</v>
+      </c>
+      <c r="I137" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="138" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="C138">
+        <v>17</v>
+      </c>
+      <c r="D138">
+        <v>12</v>
+      </c>
+      <c r="E138">
+        <v>2019</v>
+      </c>
+      <c r="H138" t="s">
+        <v>112</v>
+      </c>
+      <c r="I138" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="C139">
+        <v>17</v>
+      </c>
+      <c r="D139">
+        <v>12</v>
+      </c>
+      <c r="E139">
+        <v>2019</v>
+      </c>
+      <c r="H139" t="s">
+        <v>113</v>
+      </c>
+      <c r="I139" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="C140">
+        <v>17</v>
+      </c>
+      <c r="D140">
+        <v>12</v>
+      </c>
+      <c r="E140">
+        <v>2019</v>
+      </c>
+      <c r="H140" t="s">
+        <v>129</v>
+      </c>
+      <c r="I140" t="s">
         <v>127</v>
       </c>
-      <c r="I136" t="s">
-        <v>129</v>
+    </row>
+    <row r="141" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="C141">
+        <v>18</v>
+      </c>
+      <c r="D141">
+        <v>12</v>
+      </c>
+      <c r="E141">
+        <v>2019</v>
+      </c>
+      <c r="H141" t="s">
+        <v>117</v>
+      </c>
+      <c r="I141" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="142" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="C142">
+        <v>18</v>
+      </c>
+      <c r="D142">
+        <v>12</v>
+      </c>
+      <c r="E142">
+        <v>2019</v>
+      </c>
+      <c r="H142" t="s">
+        <v>124</v>
+      </c>
+      <c r="I142" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="143" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="C143">
+        <v>18</v>
+      </c>
+      <c r="D143">
+        <v>12</v>
+      </c>
+      <c r="E143">
+        <v>2019</v>
+      </c>
+      <c r="H143" t="s">
+        <v>121</v>
+      </c>
+      <c r="I143" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:109" x14ac:dyDescent="0.2">
+      <c r="C144">
+        <v>18</v>
+      </c>
+      <c r="D144">
+        <v>12</v>
+      </c>
+      <c r="E144">
+        <v>2019</v>
+      </c>
+      <c r="H144" t="s">
+        <v>126</v>
+      </c>
+      <c r="I144" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="145" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C145">
+        <v>18</v>
+      </c>
+      <c r="D145">
+        <v>12</v>
+      </c>
+      <c r="E145">
+        <v>2019</v>
+      </c>
+      <c r="H145" t="s">
+        <v>115</v>
+      </c>
+      <c r="I145" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>